--- a/2020 Data for Medals.xlsx
+++ b/2020 Data for Medals.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0802D109-1BA6-BE4A-BEB2-E6987E0A6236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BACA21-141E-FA40-BF3E-89C4F6A19E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28040" windowHeight="16100" xr2:uid="{7FEB65AE-3C9B-7F4F-934F-EEB9E4E7E2F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{7FEB65AE-3C9B-7F4F-934F-EEB9E4E7E2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
     <sheet name="Population" sheetId="2" r:id="rId2"/>
-    <sheet name="GDP" sheetId="3" r:id="rId3"/>
+    <sheet name="Total Data" sheetId="4" r:id="rId3"/>
+    <sheet name="GDP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="218">
-  <si>
-    <t>Country (A-G)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="223">
   <si>
     <t>No. of Athletes</t>
   </si>
@@ -672,9 +670,6 @@
   </si>
   <si>
     <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
   </si>
   <si>
     <t>Macedonia</t>
@@ -703,6 +698,27 @@
   </si>
   <si>
     <t>GDP</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country </t>
   </si>
 </sst>
 </file>
@@ -787,7 +803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -796,6 +812,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E0A6BB-1666-DC43-9E80-58E1B692B5CF}">
   <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,10 +1142,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1137,7 +1154,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -1145,7 +1162,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
@@ -1153,7 +1170,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>44</v>
@@ -1161,7 +1178,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -1169,7 +1186,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1177,7 +1194,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
@@ -1185,7 +1202,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -1193,7 +1210,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>174</v>
@@ -1201,7 +1218,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <v>17</v>
@@ -1209,7 +1226,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1217,7 +1234,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>478</v>
@@ -1225,7 +1242,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>60</v>
@@ -1233,7 +1250,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
         <v>44</v>
@@ -1241,7 +1258,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2">
         <v>16</v>
@@ -1249,7 +1266,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2">
         <v>32</v>
@@ -1257,7 +1274,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -1265,7 +1282,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>8</v>
@@ -1273,7 +1290,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2">
         <v>101</v>
@@ -1281,7 +1298,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2">
         <v>121</v>
@@ -1289,7 +1306,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1297,7 +1314,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -1305,7 +1322,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1313,7 +1330,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -1321,7 +1338,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2">
         <v>5</v>
@@ -1329,7 +1346,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2">
         <v>7</v>
@@ -1337,7 +1354,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
@@ -1345,7 +1362,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="2">
         <v>302</v>
@@ -1353,7 +1370,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -1361,7 +1378,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1369,7 +1386,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
         <v>42</v>
@@ -1377,7 +1394,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2">
         <v>7</v>
@@ -1385,7 +1402,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -1393,7 +1410,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -1401,7 +1418,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2">
         <v>12</v>
@@ -1409,7 +1426,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2">
         <v>370</v>
@@ -1417,7 +1434,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -1425,7 +1442,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
@@ -1433,7 +1450,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -1441,7 +1458,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1449,7 +1466,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="2">
         <v>57</v>
@@ -1457,7 +1474,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2">
         <v>406</v>
@@ -1465,7 +1482,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="2">
         <v>59</v>
@@ -1473,7 +1490,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2">
         <v>71</v>
@@ -1481,7 +1498,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="2">
         <v>3</v>
@@ -1489,7 +1506,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="2">
         <v>6</v>
@@ -1497,7 +1514,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="2">
         <v>12</v>
@@ -1505,7 +1522,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="2">
         <v>59</v>
@@ -1513,7 +1530,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="2">
         <v>68</v>
@@ -1521,7 +1538,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="2">
         <v>13</v>
@@ -1529,7 +1546,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" s="2">
         <v>115</v>
@@ -1537,7 +1554,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2">
         <v>7</v>
@@ -1545,7 +1562,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B53" s="2">
         <v>105</v>
@@ -1553,7 +1570,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
@@ -1561,7 +1578,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -1569,7 +1586,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2">
         <v>60</v>
@@ -1577,7 +1594,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -1585,7 +1602,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2">
         <v>41</v>
@@ -1593,7 +1610,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B59" s="2">
         <v>133</v>
@@ -1601,7 +1618,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
@@ -1609,7 +1626,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -1617,7 +1634,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2">
         <v>13</v>
@@ -1625,7 +1642,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2">
         <v>33</v>
@@ -1633,7 +1650,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
@@ -1641,7 +1658,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" s="2">
         <v>36</v>
@@ -1649,7 +1666,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
@@ -1657,7 +1674,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2">
         <v>29</v>
@@ -1665,7 +1682,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B68" s="2">
         <v>30</v>
@@ -1673,7 +1690,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69" s="2">
         <v>398</v>
@@ -1681,7 +1698,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70" s="2">
         <v>5</v>
@@ -1691,7 +1708,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="2">
         <v>30</v>
@@ -1699,7 +1716,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2">
         <v>425</v>
@@ -1707,7 +1724,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2">
         <v>14</v>
@@ -1715,7 +1732,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="2">
         <v>376</v>
@@ -1723,7 +1740,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75" s="2">
         <v>83</v>
@@ -1731,7 +1748,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="2">
         <v>6</v>
@@ -1739,7 +1756,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="2">
         <v>5</v>
@@ -1747,7 +1764,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="2">
         <v>23</v>
@@ -1755,7 +1772,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="2">
         <v>5</v>
@@ -1763,7 +1780,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80" s="2">
         <v>4</v>
@@ -1771,7 +1788,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="2">
         <v>7</v>
@@ -1779,7 +1796,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="2">
         <v>6</v>
@@ -1787,7 +1804,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="2">
         <v>21</v>
@@ -1795,7 +1812,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" s="2">
         <v>42</v>
@@ -1803,7 +1820,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85" s="2">
         <v>166</v>
@@ -1811,7 +1828,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="2">
         <v>4</v>
@@ -1819,7 +1836,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B87" s="2">
         <v>125</v>
@@ -1827,7 +1844,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="2">
         <v>28</v>
@@ -1835,7 +1852,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B89" s="2">
         <v>66</v>
@@ -1843,7 +1860,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B90" s="2">
         <v>4</v>
@@ -1851,7 +1868,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="2">
         <v>116</v>
@@ -1859,7 +1876,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2">
         <v>90</v>
@@ -1867,7 +1884,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" s="2">
         <v>372</v>
@@ -1875,7 +1892,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="2">
         <v>28</v>
@@ -1883,7 +1900,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="2">
         <v>50</v>
@@ -1891,7 +1908,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B96" s="2">
         <v>552</v>
@@ -1899,7 +1916,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B97" s="2">
         <v>14</v>
@@ -1907,7 +1924,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B98" s="2">
         <v>93</v>
@@ -1915,7 +1932,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2">
         <v>85</v>
@@ -1923,7 +1940,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="2">
         <v>3</v>
@@ -1931,7 +1948,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2">
         <v>11</v>
@@ -1939,7 +1956,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2">
         <v>11</v>
@@ -1947,7 +1964,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2">
         <v>16</v>
@@ -1955,7 +1972,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2">
         <v>4</v>
@@ -1963,7 +1980,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <v>33</v>
@@ -1971,7 +1988,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2">
         <v>8</v>
@@ -1979,7 +1996,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
         <v>2</v>
@@ -1987,7 +2004,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
         <v>3</v>
@@ -1995,7 +2012,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2">
         <v>4</v>
@@ -2003,7 +2020,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2">
         <v>5</v>
@@ -2011,7 +2028,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2">
         <v>41</v>
@@ -2019,7 +2036,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2">
         <v>12</v>
@@ -2027,7 +2044,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2">
         <v>6</v>
@@ -2035,7 +2052,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2">
         <v>5</v>
@@ -2043,7 +2060,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2">
         <v>30</v>
@@ -2051,7 +2068,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2">
         <v>4</v>
@@ -2059,7 +2076,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
@@ -2067,7 +2084,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B118" s="2">
         <v>6</v>
@@ -2075,7 +2092,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2">
         <v>2</v>
@@ -2083,7 +2100,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2">
         <v>2</v>
@@ -2091,7 +2108,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
@@ -2099,7 +2116,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B122" s="2">
         <v>164</v>
@@ -2107,7 +2124,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="2">
         <v>19</v>
@@ -2115,7 +2132,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B124" s="2">
         <v>6</v>
@@ -2123,7 +2140,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125" s="2">
         <v>43</v>
@@ -2131,7 +2148,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B126" s="2">
         <v>34</v>
@@ -2139,7 +2156,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B127" s="2">
         <v>50</v>
@@ -2147,7 +2164,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B128" s="2">
         <v>10</v>
@@ -2155,7 +2172,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B129" s="2">
         <v>3</v>
@@ -2163,7 +2180,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B130" s="2">
         <v>11</v>
@@ -2171,7 +2188,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
@@ -2179,7 +2196,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B132" s="2">
         <v>5</v>
@@ -2187,7 +2204,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B133" s="2">
         <v>274</v>
@@ -2195,7 +2212,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B134" s="2">
         <v>223</v>
@@ -2203,7 +2220,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B135" s="2">
         <v>8</v>
@@ -2211,7 +2228,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B136" s="2">
         <v>7</v>
@@ -2219,7 +2236,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B137" s="2">
         <v>52</v>
@@ -2227,7 +2244,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B138" s="2">
         <v>8</v>
@@ -2235,7 +2252,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" s="2">
         <v>75</v>
@@ -2243,7 +2260,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B140" s="2">
         <v>4</v>
@@ -2251,7 +2268,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B141" s="2">
         <v>10</v>
@@ -2259,7 +2276,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B142" s="2">
         <v>3</v>
@@ -2267,7 +2284,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B143" s="2">
         <v>5</v>
@@ -2275,7 +2292,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B144" s="2">
         <v>10</v>
@@ -2283,7 +2300,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B145" s="2">
         <v>8</v>
@@ -2291,7 +2308,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B146" s="2">
         <v>8</v>
@@ -2299,7 +2316,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B147" s="2">
         <v>34</v>
@@ -2307,7 +2324,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B148" s="2">
         <v>19</v>
@@ -2315,7 +2332,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B149" s="2">
         <v>210</v>
@@ -2323,7 +2340,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B150" s="2">
         <v>92</v>
@@ -2331,7 +2348,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B151" s="2">
         <v>37</v>
@@ -2339,7 +2356,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B152" s="2">
         <v>16</v>
@@ -2347,7 +2364,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B153" s="2">
         <v>29</v>
@@ -2355,7 +2372,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B154" s="2">
         <v>3</v>
@@ -2363,7 +2380,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B155" s="2">
         <v>101</v>
@@ -2371,7 +2388,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B156" s="2">
         <v>328</v>
@@ -2379,7 +2396,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B157" s="2">
         <v>6</v>
@@ -2387,7 +2404,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B158" s="2">
         <v>3</v>
@@ -2395,7 +2412,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B159" s="2">
         <v>5</v>
@@ -2403,7 +2420,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B160" s="2">
         <v>3</v>
@@ -2411,7 +2428,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B161" s="2">
         <v>8</v>
@@ -2419,7 +2436,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B162" s="2">
         <v>5</v>
@@ -2427,7 +2444,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B163" s="2">
         <v>3</v>
@@ -2435,7 +2452,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B164" s="2">
         <v>29</v>
@@ -2443,7 +2460,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B165" s="2">
         <v>9</v>
@@ -2451,7 +2468,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B166" s="2">
         <v>86</v>
@@ -2459,7 +2476,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B167" s="2">
         <v>5</v>
@@ -2467,7 +2484,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B168" s="2">
         <v>4</v>
@@ -2475,7 +2492,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B169" s="2">
         <v>22</v>
@@ -2483,7 +2500,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B170" s="2">
         <v>41</v>
@@ -2491,7 +2508,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B171" s="2">
         <v>53</v>
@@ -2499,7 +2516,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B172" s="2">
         <v>2</v>
@@ -2507,7 +2524,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B173" s="2">
         <v>2</v>
@@ -2515,7 +2532,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B174" s="2">
         <v>177</v>
@@ -2523,7 +2540,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B175" s="2">
         <v>236</v>
@@ -2531,7 +2548,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B176" s="2">
         <v>2</v>
@@ -2539,7 +2556,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B177" s="2">
         <v>320</v>
@@ -2547,7 +2564,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B178" s="2">
         <v>9</v>
@@ -2555,7 +2572,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B179" s="2">
         <v>5</v>
@@ -2563,7 +2580,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B180" s="2">
         <v>3</v>
@@ -2571,7 +2588,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B181" s="2">
         <v>134</v>
@@ -2579,7 +2596,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B182" s="2">
         <v>106</v>
@@ -2587,7 +2604,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B183" s="2">
         <v>6</v>
@@ -2595,7 +2612,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B184" s="2">
         <v>11</v>
@@ -2603,7 +2620,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B185" s="2">
         <v>3</v>
@@ -2611,7 +2628,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B186" s="2">
         <v>42</v>
@@ -2619,7 +2636,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B187" s="2">
         <v>4</v>
@@ -2627,7 +2644,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B188" s="2">
         <v>4</v>
@@ -2635,7 +2652,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B189" s="2">
         <v>6</v>
@@ -2643,7 +2660,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B190" s="2">
         <v>22</v>
@@ -2651,7 +2668,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B191" s="2">
         <v>63</v>
@@ -2659,7 +2676,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B192" s="2">
         <v>108</v>
@@ -2667,7 +2684,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B193" s="2">
         <v>9</v>
@@ -2675,7 +2692,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2">
         <v>2</v>
@@ -2683,7 +2700,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B195" s="2">
         <v>21</v>
@@ -2691,7 +2708,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B196" s="2">
         <v>155</v>
@@ -2699,7 +2716,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B197" s="2">
         <v>5</v>
@@ -2707,7 +2724,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B198" s="2">
         <v>613</v>
@@ -2715,7 +2732,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B199" s="2">
         <v>11</v>
@@ -2723,7 +2740,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B200" s="2">
         <v>63</v>
@@ -2731,7 +2748,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B201" s="2">
         <v>3</v>
@@ -2739,7 +2756,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B202" s="2">
         <v>44</v>
@@ -2747,7 +2764,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B203" s="2">
         <v>18</v>
@@ -2755,7 +2772,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B204" s="2">
         <v>4</v>
@@ -2763,7 +2780,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B205" s="2">
         <v>5</v>
@@ -2771,7 +2788,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="2">
         <v>24</v>
@@ -2779,7 +2796,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <v>5</v>
@@ -2798,7 +2815,7 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:L1"/>
+      <selection sqref="A1:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2809,18 +2826,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>45195774</v>
@@ -2831,7 +2848,7 @@
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5">
         <v>2963243</v>
@@ -2842,7 +2859,7 @@
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <v>25499884</v>
@@ -2853,7 +2870,7 @@
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>9006398</v>
@@ -2864,7 +2881,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>10139177</v>
@@ -2875,7 +2892,7 @@
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>393244</v>
@@ -2886,7 +2903,7 @@
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5">
         <v>1701575</v>
@@ -2897,7 +2914,7 @@
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5">
         <v>9449323</v>
@@ -2908,7 +2925,7 @@
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5">
         <v>11589623</v>
@@ -2919,7 +2936,7 @@
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="5">
         <v>63918</v>
@@ -2930,7 +2947,7 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5">
         <v>2351627</v>
@@ -2941,7 +2958,7 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="5">
         <v>212559417</v>
@@ -2952,7 +2969,7 @@
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5">
         <v>6948445</v>
@@ -2963,7 +2980,7 @@
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="5">
         <v>20903273</v>
@@ -2974,7 +2991,7 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5">
         <v>37742154</v>
@@ -2985,7 +3002,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5">
         <v>1439323776</v>
@@ -2996,7 +3013,7 @@
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="5">
         <v>50882891</v>
@@ -3007,7 +3024,7 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="5">
         <v>26378274</v>
@@ -3018,7 +3035,7 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="5">
         <v>4105267</v>
@@ -3029,7 +3046,7 @@
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="5">
         <v>11326616</v>
@@ -3040,7 +3057,7 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="5">
         <v>10551219</v>
@@ -3051,7 +3068,7 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="5">
         <v>5792202</v>
@@ -3062,7 +3079,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5">
         <v>10847910</v>
@@ -3073,7 +3090,7 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5">
         <v>17643054</v>
@@ -3084,7 +3101,7 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="5">
         <v>102334404</v>
@@ -3095,7 +3112,7 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" s="5">
         <v>1326535</v>
@@ -3106,7 +3123,7 @@
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5">
         <v>114963588</v>
@@ -3117,7 +3134,7 @@
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="5">
         <v>896445</v>
@@ -3128,7 +3145,7 @@
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" s="5">
         <v>5540720</v>
@@ -3139,7 +3156,7 @@
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="5">
         <v>65273511</v>
@@ -3150,7 +3167,7 @@
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="5">
         <v>3989167</v>
@@ -3161,7 +3178,7 @@
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="5">
         <v>83783942</v>
@@ -3172,7 +3189,7 @@
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5">
         <v>31072940</v>
@@ -3183,7 +3200,7 @@
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="5">
         <v>65138232</v>
@@ -3194,7 +3211,7 @@
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="5">
         <v>10423054</v>
@@ -3205,7 +3222,7 @@
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" s="5">
         <v>112523</v>
@@ -3216,7 +3233,7 @@
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="5">
         <v>7496981</v>
@@ -3227,7 +3244,7 @@
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="5">
         <v>9660351</v>
@@ -3238,7 +3255,7 @@
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="5">
         <v>1380004385</v>
@@ -3249,7 +3266,7 @@
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="5">
         <v>273523615</v>
@@ -3260,7 +3277,7 @@
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5">
         <v>83992949</v>
@@ -3271,7 +3288,7 @@
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="5">
         <v>4937786</v>
@@ -3282,7 +3299,7 @@
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B44" s="5">
         <v>8655535</v>
@@ -3293,7 +3310,7 @@
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="5">
         <v>60461826</v>
@@ -3304,7 +3321,7 @@
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="5">
         <v>2961167</v>
@@ -3315,7 +3332,7 @@
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="5">
         <v>126476461</v>
@@ -3326,7 +3343,7 @@
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B48" s="5">
         <v>10203134</v>
@@ -3337,7 +3354,7 @@
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="5">
         <v>18776707</v>
@@ -3348,7 +3365,7 @@
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" s="5">
         <v>53771296</v>
@@ -3359,7 +3376,7 @@
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="5">
         <v>1859203</v>
@@ -3370,7 +3387,7 @@
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="5">
         <v>4270571</v>
@@ -3381,7 +3398,7 @@
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="5">
         <v>6524195</v>
@@ -3392,7 +3409,7 @@
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="5">
         <v>1886198</v>
@@ -3403,7 +3420,7 @@
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="5">
         <v>2722289</v>
@@ -3414,7 +3431,7 @@
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B56" s="5">
         <v>2078453</v>
@@ -3425,7 +3442,7 @@
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B57" s="5">
         <v>32365999</v>
@@ -3436,7 +3453,7 @@
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="5">
         <v>128932753</v>
@@ -3447,7 +3464,7 @@
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" s="5">
         <v>4033963</v>
@@ -3458,7 +3475,7 @@
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="5">
         <v>3278290</v>
@@ -3469,7 +3486,7 @@
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B61" s="5">
         <v>36910560</v>
@@ -3480,7 +3497,7 @@
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B62" s="5">
         <v>2540905</v>
@@ -3491,7 +3508,7 @@
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63" s="5">
         <v>17134872</v>
@@ -3502,7 +3519,7 @@
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="5">
         <v>4822233</v>
@@ -3513,7 +3530,7 @@
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="5">
         <v>206139589</v>
@@ -3524,7 +3541,7 @@
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="5">
         <v>5421241</v>
@@ -3535,7 +3552,7 @@
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="5">
         <v>109581078</v>
@@ -3546,7 +3563,7 @@
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" s="5">
         <v>37846611</v>
@@ -3557,7 +3574,7 @@
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="5">
         <v>10196709</v>
@@ -3568,7 +3585,7 @@
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="5">
         <v>3474182</v>
@@ -3579,7 +3596,7 @@
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="5">
         <v>2881053</v>
@@ -3590,7 +3607,7 @@
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="5">
         <v>19237691</v>
@@ -3601,7 +3618,7 @@
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B73" s="5">
         <v>144096812</v>
@@ -3612,7 +3629,7 @@
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="5">
         <v>33931</v>
@@ -3623,7 +3640,7 @@
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="5">
         <v>34813871</v>
@@ -3634,7 +3651,7 @@
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B76" s="5">
         <v>8737371</v>
@@ -3645,7 +3662,7 @@
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B77" s="5">
         <v>5459642</v>
@@ -3656,7 +3673,7 @@
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="5">
         <v>2078938</v>
@@ -3667,7 +3684,7 @@
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" s="5">
         <v>59308690</v>
@@ -3678,7 +3695,7 @@
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" s="5">
         <v>51269185</v>
@@ -3689,7 +3706,7 @@
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B81" s="5">
         <v>46754778</v>
@@ -3700,7 +3717,7 @@
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B82" s="5">
         <v>10099265</v>
@@ -3711,7 +3728,7 @@
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="5">
         <v>8654622</v>
@@ -3722,7 +3739,7 @@
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B84" s="5">
         <v>18502413</v>
@@ -3733,7 +3750,7 @@
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85" s="5">
         <v>23510000</v>
@@ -3744,7 +3761,7 @@
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" s="5">
         <v>69799978</v>
@@ -3755,7 +3772,7 @@
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" s="5">
         <v>11818619</v>
@@ -3766,7 +3783,7 @@
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" s="5">
         <v>84339067</v>
@@ -3777,7 +3794,7 @@
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" s="5">
         <v>6031200</v>
@@ -3788,7 +3805,7 @@
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B90" s="5">
         <v>45741007</v>
@@ -3799,7 +3816,7 @@
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B91" s="5">
         <v>43733762</v>
@@ -3810,7 +3827,7 @@
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B92" s="5">
         <v>331002651</v>
@@ -3821,7 +3838,7 @@
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B93" s="5">
         <v>33469203</v>
@@ -3832,7 +3849,7 @@
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B94" s="5">
         <v>31108083</v>
@@ -3850,11 +3867,2849 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E063B-465F-FF4D-B4FF-4ABE654D1EB2}">
+  <dimension ref="A1:I94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(D2:F2)</f>
+        <v>3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45195774</v>
+      </c>
+      <c r="I2" s="4">
+        <v>637.42999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <f>SUM(D3:F3)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2963243</v>
+      </c>
+      <c r="I3" s="4">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>39</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4">
+        <v>22</v>
+      </c>
+      <c r="G4" s="4">
+        <f>SUM(D4:F4)</f>
+        <v>46</v>
+      </c>
+      <c r="H4" s="5">
+        <v>25499884</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1323.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f>SUM(D5:F5)</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9006398</v>
+      </c>
+      <c r="I5" s="4">
+        <v>416.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <f>SUM(D6:F6)</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>10139177</v>
+      </c>
+      <c r="I6" s="4">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <f>SUM(D7:F7)</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>393244</v>
+      </c>
+      <c r="I7" s="4">
+        <v>12.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f>SUM(D8:F8)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1701575</v>
+      </c>
+      <c r="I8" s="4">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <f>SUM(D9:F9)</f>
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9449323</v>
+      </c>
+      <c r="I9" s="4">
+        <v>54.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4">
+        <f>SUM(D10:F10)</f>
+        <v>7</v>
+      </c>
+      <c r="H10" s="5">
+        <v>11589623</v>
+      </c>
+      <c r="I10" s="4">
+        <v>494.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <f>SUM(D11:F11)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>63918</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <f>SUM(D12:F12)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2351627</v>
+      </c>
+      <c r="I12" s="4">
+        <v>17.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(D13:F13)</f>
+        <v>21</v>
+      </c>
+      <c r="H13" s="5">
+        <v>212559417</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2053.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <f>SUM(D14:F14)</f>
+        <v>6</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6948445</v>
+      </c>
+      <c r="I14" s="4">
+        <v>58.22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>38</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <f>SUM(D15:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>20903273</v>
+      </c>
+      <c r="I15" s="4">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>66</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="4">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4">
+        <f>SUM(D16:F16)</f>
+        <v>24</v>
+      </c>
+      <c r="H16" s="5">
+        <v>37742154</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1647.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>80</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D17" s="4">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <f>SUM(D17:F17)</f>
+        <v>88</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1439323776</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12237.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f>SUM(D18:F18)</f>
+        <v>5</v>
+      </c>
+      <c r="H18" s="5">
+        <v>50882891</v>
+      </c>
+      <c r="I18" s="4">
+        <v>314.45999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <f>SUM(D19:F19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>26378274</v>
+      </c>
+      <c r="I19" s="4">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <f>SUM(D20:F20)</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4105267</v>
+      </c>
+      <c r="I20" s="4">
+        <v>55.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
+        <f>SUM(D21:F21)</f>
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>11326616</v>
+      </c>
+      <c r="I21" s="4">
+        <v>96.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <f>SUM(D22:F22)</f>
+        <v>11</v>
+      </c>
+      <c r="H22" s="5">
+        <v>10551219</v>
+      </c>
+      <c r="I22" s="4">
+        <v>215.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <f>SUM(D23:F23)</f>
+        <v>11</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5792202</v>
+      </c>
+      <c r="I23" s="4">
+        <v>329.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <f>SUM(D24:F24)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="5">
+        <v>10847910</v>
+      </c>
+      <c r="I24" s="4">
+        <v>75.930000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f>SUM(D25:F25)</f>
+        <v>3</v>
+      </c>
+      <c r="H25" s="5">
+        <v>17643054</v>
+      </c>
+      <c r="I25" s="4">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <f>SUM(D26:F26)</f>
+        <v>6</v>
+      </c>
+      <c r="H26" s="5">
+        <v>102334404</v>
+      </c>
+      <c r="I26" s="4">
+        <v>235.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <f>SUM(D27:F27)</f>
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1326535</v>
+      </c>
+      <c r="I27" s="4">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <f>SUM(D28:F28)</f>
+        <v>4</v>
+      </c>
+      <c r="H28" s="5">
+        <v>114963588</v>
+      </c>
+      <c r="I28" s="4">
+        <v>80.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <f>SUM(D29:F29)</f>
+        <v>2</v>
+      </c>
+      <c r="H29" s="5">
+        <v>896445</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>89</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <f>SUM(D30:F30)</f>
+        <v>2</v>
+      </c>
+      <c r="H30" s="5">
+        <v>5540720</v>
+      </c>
+      <c r="I30" s="4">
+        <v>252.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>68</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4">
+        <f>SUM(D31:F31)</f>
+        <v>33</v>
+      </c>
+      <c r="H31" s="5">
+        <v>65273511</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2582.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <f>SUM(D32:F32)</f>
+        <v>8</v>
+      </c>
+      <c r="H32" s="5">
+        <v>3989167</v>
+      </c>
+      <c r="I32" s="4">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>79</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4">
+        <v>16</v>
+      </c>
+      <c r="G33" s="4">
+        <f>SUM(D33:F33)</f>
+        <v>37</v>
+      </c>
+      <c r="H33" s="5">
+        <v>83783942</v>
+      </c>
+      <c r="I33" s="4">
+        <v>3693.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>82</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <f>SUM(D34:F34)</f>
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>31072940</v>
+      </c>
+      <c r="I34" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="4">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4">
+        <v>21</v>
+      </c>
+      <c r="F35" s="4">
+        <v>22</v>
+      </c>
+      <c r="G35" s="4">
+        <f>SUM(D35:F35)</f>
+        <v>65</v>
+      </c>
+      <c r="H35" s="5">
+        <v>65138232</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2431.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>47</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <f>SUM(D36:F36)</f>
+        <v>4</v>
+      </c>
+      <c r="H36" s="5">
+        <v>10423054</v>
+      </c>
+      <c r="I36" s="4">
+        <v>203.09</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <f>SUM(D37:F37)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>112523</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>63</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4">
+        <f>SUM(D38:F38)</f>
+        <v>6</v>
+      </c>
+      <c r="H38" s="5">
+        <v>7496981</v>
+      </c>
+      <c r="I38" s="4">
+        <v>341.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>17</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D39" s="4">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4">
+        <f>SUM(D39:F39)</f>
+        <v>20</v>
+      </c>
+      <c r="H39" s="5">
+        <v>9660351</v>
+      </c>
+      <c r="I39" s="4">
+        <v>139.76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>91</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4">
+        <f>SUM(D40:F40)</f>
+        <v>7</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1380004385</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2650.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>86</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3</v>
+      </c>
+      <c r="G41" s="4">
+        <f>SUM(D41:F41)</f>
+        <v>5</v>
+      </c>
+      <c r="H41" s="5">
+        <v>273523615</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1015.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>58</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4">
+        <f>SUM(D42:F42)</f>
+        <v>7</v>
+      </c>
+      <c r="H42" s="5">
+        <v>83992949</v>
+      </c>
+      <c r="I42" s="4">
+        <v>454.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>67</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D43" s="4">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4">
+        <f>SUM(D43:F43)</f>
+        <v>4</v>
+      </c>
+      <c r="H43" s="5">
+        <v>4937786</v>
+      </c>
+      <c r="I43" s="4">
+        <v>331.43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>71</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" s="4">
+        <f>SUM(D44:F44)</f>
+        <v>4</v>
+      </c>
+      <c r="H44" s="5">
+        <v>8655535</v>
+      </c>
+      <c r="I44" s="4">
+        <v>353.27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D45" s="4">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4">
+        <v>20</v>
+      </c>
+      <c r="G45" s="4">
+        <f>SUM(D45:F45)</f>
+        <v>40</v>
+      </c>
+      <c r="H45" s="5">
+        <v>60461826</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1943.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4">
+        <f>SUM(D46:F46)</f>
+        <v>9</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2961167</v>
+      </c>
+      <c r="I46" s="4">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>65</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="4">
+        <v>27</v>
+      </c>
+      <c r="E47" s="4">
+        <v>14</v>
+      </c>
+      <c r="F47" s="4">
+        <v>17</v>
+      </c>
+      <c r="G47" s="4">
+        <f>SUM(D47:F47)</f>
+        <v>58</v>
+      </c>
+      <c r="H47" s="5">
+        <v>126476461</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4872.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <f>SUM(D48:F48)</f>
+        <v>2</v>
+      </c>
+      <c r="H48" s="5">
+        <v>10203134</v>
+      </c>
+      <c r="I48" s="4">
+        <v>40.07</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>50</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>8</v>
+      </c>
+      <c r="G49" s="4">
+        <f>SUM(D49:F49)</f>
+        <v>8</v>
+      </c>
+      <c r="H49" s="5">
+        <v>18776707</v>
+      </c>
+      <c r="I49" s="4">
+        <v>162.88999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>16</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
+        <f>SUM(D50:F50)</f>
+        <v>10</v>
+      </c>
+      <c r="H50" s="5">
+        <v>53771296</v>
+      </c>
+      <c r="I50" s="4">
+        <v>79.260000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>12</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <f>SUM(D51:F51)</f>
+        <v>2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1859203</v>
+      </c>
+      <c r="I51" s="4">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>87</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4">
+        <f>SUM(D52:F52)</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="5">
+        <v>4270571</v>
+      </c>
+      <c r="I52" s="4">
+        <v>120.13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <f>SUM(D53:F53)</f>
+        <v>3</v>
+      </c>
+      <c r="H53" s="5">
+        <v>6524195</v>
+      </c>
+      <c r="I53" s="4">
+        <v>7.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>27</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <f>SUM(D54:F54)</f>
+        <v>2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>1886198</v>
+      </c>
+      <c r="I54" s="4">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>56</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <f>SUM(D55:F55)</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2722289</v>
+      </c>
+      <c r="I55" s="4">
+        <v>47.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>25</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <f>SUM(D56:F56)</f>
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2078453</v>
+      </c>
+      <c r="I56" s="4">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>85</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <f>SUM(D57:F57)</f>
+        <v>2</v>
+      </c>
+      <c r="H57" s="5">
+        <v>32365999</v>
+      </c>
+      <c r="I57" s="4">
+        <v>314.70999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>92</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="G58" s="4">
+        <f>SUM(D58:F58)</f>
+        <v>4</v>
+      </c>
+      <c r="H58" s="5">
+        <v>128932753</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1150.8900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>31</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <f>SUM(D59:F59)</f>
+        <v>1</v>
+      </c>
+      <c r="H59" s="5">
+        <v>4033963</v>
+      </c>
+      <c r="I59" s="4">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>11</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4">
+        <f>SUM(D60:F60)</f>
+        <v>4</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3278290</v>
+      </c>
+      <c r="I60" s="4">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <f>SUM(D61:F61)</f>
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
+        <v>36910560</v>
+      </c>
+      <c r="I61" s="4">
+        <v>109.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>28</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f>SUM(D62:F62)</f>
+        <v>1</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2540905</v>
+      </c>
+      <c r="I62" s="4">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>36</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D63" s="4">
+        <v>10</v>
+      </c>
+      <c r="E63" s="4">
+        <v>12</v>
+      </c>
+      <c r="F63" s="4">
+        <v>14</v>
+      </c>
+      <c r="G63" s="4">
+        <f>SUM(D63:F63)</f>
+        <v>36</v>
+      </c>
+      <c r="H63" s="5">
+        <v>17134872</v>
+      </c>
+      <c r="I63" s="4">
+        <v>830.57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>24</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D64" s="4">
+        <v>7</v>
+      </c>
+      <c r="E64" s="4">
+        <v>6</v>
+      </c>
+      <c r="F64" s="4">
+        <v>7</v>
+      </c>
+      <c r="G64" s="4">
+        <f>SUM(D64:F64)</f>
+        <v>20</v>
+      </c>
+      <c r="H64" s="5">
+        <v>4822233</v>
+      </c>
+      <c r="I64" s="4">
+        <v>204.14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>88</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C65" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <f>SUM(D65:F65)</f>
+        <v>2</v>
+      </c>
+      <c r="H65" s="5">
+        <v>206139589</v>
+      </c>
+      <c r="I65" s="4">
+        <v>375.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>46</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D66" s="4">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4">
+        <v>2</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4">
+        <f>SUM(D66:F66)</f>
+        <v>8</v>
+      </c>
+      <c r="H66" s="5">
+        <v>5421241</v>
+      </c>
+      <c r="I66" s="4">
+        <v>399.49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>69</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4">
+        <f>SUM(D67:F67)</f>
+        <v>4</v>
+      </c>
+      <c r="H67" s="5">
+        <v>109581078</v>
+      </c>
+      <c r="I67" s="4">
+        <v>313.60000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>43</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D68" s="4">
+        <v>4</v>
+      </c>
+      <c r="E68" s="4">
+        <v>5</v>
+      </c>
+      <c r="F68" s="4">
+        <v>5</v>
+      </c>
+      <c r="G68" s="4">
+        <f>SUM(D68:F68)</f>
+        <v>14</v>
+      </c>
+      <c r="H68" s="5">
+        <v>37846611</v>
+      </c>
+      <c r="I68" s="4">
+        <v>526.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>60</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4">
+        <f>SUM(D69:F69)</f>
+        <v>4</v>
+      </c>
+      <c r="H69" s="5">
+        <v>10196709</v>
+      </c>
+      <c r="I69" s="4">
+        <v>219.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>54</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f>SUM(D70:F70)</f>
+        <v>1</v>
+      </c>
+      <c r="H70" s="5">
+        <v>3474182</v>
+      </c>
+      <c r="I70" s="4">
+        <v>92.61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>48</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <f>SUM(D71:F71)</f>
+        <v>3</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2881053</v>
+      </c>
+      <c r="I71" s="4">
+        <v>166.93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>52</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>3</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f>SUM(D72:F72)</f>
+        <v>4</v>
+      </c>
+      <c r="H72" s="5">
+        <v>19237691</v>
+      </c>
+      <c r="I72" s="4">
+        <v>211.88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>37</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D73" s="4">
+        <v>20</v>
+      </c>
+      <c r="E73" s="4">
+        <v>28</v>
+      </c>
+      <c r="F73" s="4">
+        <v>23</v>
+      </c>
+      <c r="G73" s="4">
+        <f>SUM(D73:F73)</f>
+        <v>71</v>
+      </c>
+      <c r="H73" s="5">
+        <v>144096812</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1857.77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4">
+        <f>SUM(D74:F74)</f>
+        <v>3</v>
+      </c>
+      <c r="H74" s="5">
+        <v>33931</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>93</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f>SUM(D75:F75)</f>
+        <v>1</v>
+      </c>
+      <c r="H75" s="5">
+        <v>34813871</v>
+      </c>
+      <c r="I75" s="4">
+        <v>686.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>10</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D76" s="4">
+        <v>3</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>5</v>
+      </c>
+      <c r="G76" s="4">
+        <f>SUM(D76:F76)</f>
+        <v>9</v>
+      </c>
+      <c r="H76" s="5">
+        <v>8737371</v>
+      </c>
+      <c r="I76" s="4">
+        <v>41.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>35</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D77" s="4">
+        <v>1</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" s="4">
+        <f>SUM(D77:F77)</f>
+        <v>4</v>
+      </c>
+      <c r="H77" s="5">
+        <v>5459642</v>
+      </c>
+      <c r="I77" s="4">
+        <v>95.62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>18</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D78" s="4">
+        <v>3</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <f>SUM(D78:F78)</f>
+        <v>5</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2078938</v>
+      </c>
+      <c r="I78" s="4">
+        <v>48.77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <f>SUM(D79:F79)</f>
+        <v>3</v>
+      </c>
+      <c r="H79" s="5">
+        <v>59308690</v>
+      </c>
+      <c r="I79" s="4">
+        <v>348.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>72</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D80" s="4">
+        <v>6</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4">
+        <v>10</v>
+      </c>
+      <c r="G80" s="4">
+        <f>SUM(D80:F80)</f>
+        <v>20</v>
+      </c>
+      <c r="H80" s="5">
+        <v>51269185</v>
+      </c>
+      <c r="I80" s="4">
+        <v>1530.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>75</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D81" s="4">
+        <v>3</v>
+      </c>
+      <c r="E81" s="4">
+        <v>8</v>
+      </c>
+      <c r="F81" s="4">
+        <v>6</v>
+      </c>
+      <c r="G81" s="4">
+        <f>SUM(D81:F81)</f>
+        <v>17</v>
+      </c>
+      <c r="H81" s="5">
+        <v>46754778</v>
+      </c>
+      <c r="I81" s="4">
+        <v>1314.31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>53</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D82" s="4">
+        <v>3</v>
+      </c>
+      <c r="E82" s="4">
+        <v>6</v>
+      </c>
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <f>SUM(D82:F82)</f>
+        <v>9</v>
+      </c>
+      <c r="H82" s="5">
+        <v>10099265</v>
+      </c>
+      <c r="I82" s="4">
+        <v>535.61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>59</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D83" s="4">
+        <v>3</v>
+      </c>
+      <c r="E83" s="4">
+        <v>4</v>
+      </c>
+      <c r="F83" s="4">
+        <v>6</v>
+      </c>
+      <c r="G83" s="4">
+        <f>SUM(D83:F83)</f>
+        <v>13</v>
+      </c>
+      <c r="H83" s="5">
+        <v>8654622</v>
+      </c>
+      <c r="I83" s="4">
+        <v>678.97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" s="4">
+        <f>SUM(D84:F84)</f>
+        <v>1</v>
+      </c>
+      <c r="H84" s="5">
+        <v>18502413</v>
+      </c>
+      <c r="I84" s="4">
+        <v>52.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>51</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="4">
+        <v>4</v>
+      </c>
+      <c r="F85" s="4">
+        <v>6</v>
+      </c>
+      <c r="G85" s="4">
+        <f>SUM(D85:F85)</f>
+        <v>12</v>
+      </c>
+      <c r="H85" s="5">
+        <v>23510000</v>
+      </c>
+      <c r="I85" s="4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4">
+        <f>SUM(D86:F86)</f>
+        <v>2</v>
+      </c>
+      <c r="H86" s="5">
+        <v>69799978</v>
+      </c>
+      <c r="I86" s="4">
+        <v>455.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>29</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <f>SUM(D87:F87)</f>
+        <v>2</v>
+      </c>
+      <c r="H87" s="5">
+        <v>11818619</v>
+      </c>
+      <c r="I87" s="4">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>76</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D88" s="4">
+        <v>2</v>
+      </c>
+      <c r="E88" s="4">
+        <v>2</v>
+      </c>
+      <c r="F88" s="4">
+        <v>9</v>
+      </c>
+      <c r="G88" s="4">
+        <f>SUM(D88:F88)</f>
+        <v>13</v>
+      </c>
+      <c r="H88" s="5">
+        <v>84339067</v>
+      </c>
+      <c r="I88" s="4">
+        <v>851.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>49</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>1</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <f>SUM(D89:F89)</f>
+        <v>1</v>
+      </c>
+      <c r="H89" s="5">
+        <v>6031200</v>
+      </c>
+      <c r="I89" s="4">
+        <v>37.93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>13</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>1</v>
+      </c>
+      <c r="F90" s="4">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4">
+        <f>SUM(D90:F90)</f>
+        <v>4</v>
+      </c>
+      <c r="H90" s="5">
+        <v>45741007</v>
+      </c>
+      <c r="I90" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>21</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="4">
+        <v>6</v>
+      </c>
+      <c r="F91" s="4">
+        <v>12</v>
+      </c>
+      <c r="G91" s="4">
+        <f>SUM(D91:F91)</f>
+        <v>19</v>
+      </c>
+      <c r="H91" s="5">
+        <v>43733762</v>
+      </c>
+      <c r="I91" s="4">
+        <v>112.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>83</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D92" s="4">
+        <v>39</v>
+      </c>
+      <c r="E92" s="4">
+        <v>41</v>
+      </c>
+      <c r="F92" s="4">
+        <v>33</v>
+      </c>
+      <c r="G92" s="4">
+        <f>SUM(D92:F92)</f>
+        <v>113</v>
+      </c>
+      <c r="H92" s="5">
+        <v>331002651</v>
+      </c>
+      <c r="I92" s="4">
+        <v>19485.39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>19</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D93" s="4">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>2</v>
+      </c>
+      <c r="G93" s="4">
+        <f>SUM(D93:F93)</f>
+        <v>5</v>
+      </c>
+      <c r="H93" s="5">
+        <v>33469203</v>
+      </c>
+      <c r="I93" s="4">
+        <v>49.68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>64</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <f>SUM(D94:F94)</f>
+        <v>4</v>
+      </c>
+      <c r="H94" s="5">
+        <v>31108083</v>
+      </c>
+      <c r="I94" s="4">
+        <v>316.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">
+    <sortCondition ref="B2:B94"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5739676-1F69-9B45-AF79-B1D3C14696D7}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3864,23 +6719,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>215</v>
+      <c r="C1" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3888,7 +6743,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>637.42999999999995</v>
@@ -3900,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <v>11.54</v>
@@ -3912,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>1323.42</v>
@@ -3924,7 +6779,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
         <v>416.84</v>
@@ -3936,7 +6791,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>40.75</v>
@@ -3948,7 +6803,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="4">
         <v>12.16</v>
@@ -3960,7 +6815,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4">
         <v>35.43</v>
@@ -3972,7 +6827,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4">
         <v>54.46</v>
@@ -3984,7 +6839,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4">
         <v>494.76</v>
@@ -3996,7 +6851,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4">
         <v>7.48</v>
@@ -4008,7 +6863,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4">
         <v>17.41</v>
@@ -4020,7 +6875,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4">
         <v>2053.59</v>
@@ -4032,7 +6887,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4">
         <v>58.22</v>
@@ -4044,7 +6899,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
         <v>12.32</v>
@@ -4056,7 +6911,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="4">
         <v>1647.12</v>
@@ -4068,7 +6923,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="4">
         <v>12237.7</v>
@@ -4080,7 +6935,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="4">
         <v>314.45999999999998</v>
@@ -4092,7 +6947,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C20" s="4">
         <v>37.35</v>
@@ -4104,7 +6959,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4">
         <v>55.21</v>
@@ -4116,7 +6971,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C22" s="4">
         <v>96.85</v>
@@ -4128,7 +6983,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="4">
         <v>215.22</v>
@@ -4140,7 +6995,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4">
         <v>329.87</v>
@@ -4152,7 +7007,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4">
         <v>75.930000000000007</v>
@@ -4164,7 +7019,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4">
         <v>104.3</v>
@@ -4176,7 +7031,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="4">
         <v>235.37</v>
@@ -4188,7 +7043,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C28" s="4">
         <v>26.61</v>
@@ -4200,7 +7055,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="4">
         <v>80.56</v>
@@ -4212,7 +7067,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="4">
         <v>5.0599999999999996</v>
@@ -4224,7 +7079,7 @@
         <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="4">
         <v>252.3</v>
@@ -4236,7 +7091,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="4">
         <v>2582.5</v>
@@ -4248,7 +7103,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4">
         <v>15.08</v>
@@ -4260,7 +7115,7 @@
         <v>79</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4">
         <v>3693.2</v>
@@ -4272,7 +7127,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="4">
         <v>59</v>
@@ -4284,7 +7139,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="4">
         <v>2431.59</v>
@@ -4296,7 +7151,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4">
         <v>203.09</v>
@@ -4308,7 +7163,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4">
         <v>1.1299999999999999</v>
@@ -4320,7 +7175,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4">
         <v>341.45</v>
@@ -4332,7 +7187,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <v>139.76</v>
@@ -4344,7 +7199,7 @@
         <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="4">
         <v>2650.73</v>
@@ -4356,7 +7211,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="4">
         <v>1015.42</v>
@@ -4368,7 +7223,7 @@
         <v>58</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="4">
         <v>454.01</v>
@@ -4380,7 +7235,7 @@
         <v>67</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="4">
         <v>331.43</v>
@@ -4392,7 +7247,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="4">
         <v>353.27</v>
@@ -4404,7 +7259,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="4">
         <v>1943.84</v>
@@ -4416,7 +7271,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="4">
         <v>14.78</v>
@@ -4428,7 +7283,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="4">
         <v>4872.42</v>
@@ -4440,7 +7295,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="4">
         <v>40.07</v>
@@ -4452,7 +7307,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" s="4">
         <v>162.88999999999999</v>
@@ -4464,7 +7319,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="4">
         <v>79.260000000000005</v>
@@ -4476,7 +7331,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="4">
         <v>18.84</v>
@@ -4488,7 +7343,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="4">
         <v>120.13</v>
@@ -4500,7 +7355,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="4">
         <v>7.56</v>
@@ -4512,7 +7367,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4">
         <v>30.46</v>
@@ -4524,7 +7379,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4">
         <v>47.54</v>
@@ -4536,7 +7391,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C57" s="4">
         <v>10.17</v>
@@ -4548,7 +7403,7 @@
         <v>85</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4">
         <v>314.70999999999998</v>
@@ -4560,7 +7415,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4">
         <v>1150.8900000000001</v>
@@ -4572,7 +7427,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="4">
         <v>8.1300000000000008</v>
@@ -4584,7 +7439,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4">
         <v>11.43</v>
@@ -4596,7 +7451,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4">
         <v>109.71</v>
@@ -4608,7 +7463,7 @@
         <v>28</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="4">
         <v>13.25</v>
@@ -4620,7 +7475,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="4">
         <v>830.57</v>
@@ -4632,7 +7487,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" s="4">
         <v>204.14</v>
@@ -4644,7 +7499,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C66" s="4">
         <v>375.75</v>
@@ -4656,7 +7511,7 @@
         <v>46</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="4">
         <v>399.49</v>
@@ -4668,7 +7523,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C68" s="4">
         <v>313.60000000000002</v>
@@ -4680,7 +7535,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69" s="4">
         <v>526.47</v>
@@ -4692,7 +7547,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="4">
         <v>219.31</v>
@@ -4704,7 +7559,7 @@
         <v>54</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C71" s="4">
         <v>92.61</v>
@@ -4716,7 +7571,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C72" s="4">
         <v>166.93</v>
@@ -4728,7 +7583,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C73" s="4">
         <v>211.88</v>
@@ -4740,7 +7595,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C74" s="4">
         <v>1857.77</v>
@@ -4752,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" s="4">
         <v>1.63</v>
@@ -4764,7 +7619,7 @@
         <v>93</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="4">
         <v>686.74</v>
@@ -4776,7 +7631,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77" s="4">
         <v>41.43</v>
@@ -4788,7 +7643,7 @@
         <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="4">
         <v>95.62</v>
@@ -4800,7 +7655,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4">
         <v>48.77</v>
@@ -4812,7 +7667,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C80" s="4">
         <v>348.87</v>
@@ -4824,7 +7679,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C81" s="4">
         <v>1530.75</v>
@@ -4836,7 +7691,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="4">
         <v>1314.31</v>
@@ -4848,7 +7703,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="4">
         <v>535.61</v>
@@ -4860,7 +7715,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" s="4">
         <v>678.97</v>
@@ -4872,7 +7727,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4">
         <v>52.58</v>
@@ -4884,7 +7739,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="4">
         <v>466</v>
@@ -4896,7 +7751,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C87" s="4">
         <v>455.3</v>
@@ -4908,7 +7763,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4">
         <v>39.950000000000003</v>
@@ -4920,7 +7775,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="4">
         <v>851.55</v>
@@ -4932,7 +7787,7 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="4">
         <v>37.93</v>
@@ -4944,7 +7799,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C91" s="4">
         <v>26</v>
@@ -4956,7 +7811,7 @@
         <v>21</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="4">
         <v>112.15</v>
@@ -4968,7 +7823,7 @@
         <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C93" s="4">
         <v>19485.39</v>
@@ -4980,7 +7835,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C94" s="4">
         <v>49.68</v>
@@ -4992,7 +7847,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C95" s="4">
         <v>316.48</v>

--- a/2020 Data for Medals.xlsx
+++ b/2020 Data for Medals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BACA21-141E-FA40-BF3E-89C4F6A19E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E33BF3-10ED-DE43-BBAE-D9E5FC2BA4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{7FEB65AE-3C9B-7F4F-934F-EEB9E4E7E2F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{7FEB65AE-3C9B-7F4F-934F-EEB9E4E7E2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
   <si>
     <t>No. of Athletes</t>
   </si>
@@ -249,9 +249,6 @@
     <t>Bolivia</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>San Marino</t>
   </si>
   <si>
@@ -450,9 +447,6 @@
     <t>Maldives</t>
   </si>
   <si>
-    <t>Chinese Taipei</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
@@ -643,9 +637,6 @@
   </si>
   <si>
     <t>Gabon</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
   </si>
   <si>
     <t>Zambia</t>
@@ -1128,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E0A6BB-1666-DC43-9E80-58E1B692B5CF}">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,9 +1131,9 @@
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1150,9 +1141,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1160,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1200,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -1208,7 +1198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1232,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1240,7 +1230,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1248,7 +1238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1256,7 +1246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1264,7 +1254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -1346,7 +1336,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2">
         <v>7</v>
@@ -1354,7 +1344,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
@@ -1362,7 +1352,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2">
         <v>302</v>
@@ -1370,7 +1360,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -1378,7 +1368,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1386,7 +1376,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="2">
         <v>42</v>
@@ -1394,7 +1384,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="2">
         <v>7</v>
@@ -1402,7 +1392,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -1410,7 +1400,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -1418,7 +1408,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="2">
         <v>12</v>
@@ -1426,7 +1416,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2">
         <v>370</v>
@@ -1434,7 +1424,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -1442,7 +1432,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
@@ -1450,7 +1440,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -1458,7 +1448,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1466,7 +1456,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="2">
         <v>57</v>
@@ -1474,7 +1464,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="2">
         <v>406</v>
@@ -1482,47 +1472,47 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44" s="2">
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B45" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="B47" s="2">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="2">
         <v>59</v>
@@ -1530,7 +1520,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B49" s="2">
         <v>68</v>
@@ -1538,7 +1528,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B50" s="2">
         <v>13</v>
@@ -1546,7 +1536,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B51" s="2">
         <v>115</v>
@@ -1554,7 +1544,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B52" s="2">
         <v>7</v>
@@ -1562,7 +1552,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B53" s="2">
         <v>105</v>
@@ -1570,7 +1560,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
@@ -1578,7 +1568,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -1586,7 +1576,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B56" s="2">
         <v>60</v>
@@ -1594,7 +1584,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -1602,7 +1592,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B58" s="2">
         <v>41</v>
@@ -1610,7 +1600,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B59" s="2">
         <v>133</v>
@@ -1618,7 +1608,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
@@ -1626,7 +1616,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -1634,7 +1624,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B62" s="2">
         <v>13</v>
@@ -1642,7 +1632,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B63" s="2">
         <v>33</v>
@@ -1650,63 +1640,62 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B67" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B68" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B69" s="2">
         <v>398</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B70" s="2">
         <v>5</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -1714,7 +1703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -1722,7 +1711,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1727,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1735,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>20</v>
       </c>
@@ -1762,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>26</v>
       </c>
@@ -1778,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>29</v>
       </c>
@@ -1892,63 +1881,63 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B94" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B95" s="2">
-        <v>50</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B96" s="2">
-        <v>552</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2">
-        <v>14</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B99" s="2">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B100" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B101" s="2">
         <v>11</v>
@@ -1956,95 +1945,95 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B111" s="2">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="B112" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2">
         <v>6</v>
@@ -2052,7 +2041,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2">
         <v>5</v>
@@ -2060,7 +2049,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B115" s="2">
         <v>30</v>
@@ -2068,7 +2057,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2">
         <v>4</v>
@@ -2076,7 +2065,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
@@ -2084,7 +2073,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2">
         <v>6</v>
@@ -2092,7 +2081,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B119" s="2">
         <v>2</v>
@@ -2100,7 +2089,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2">
         <v>2</v>
@@ -2108,7 +2097,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
@@ -2116,7 +2105,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B122" s="2">
         <v>164</v>
@@ -2124,7 +2113,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B123" s="2">
         <v>19</v>
@@ -2132,7 +2121,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2">
         <v>6</v>
@@ -2140,7 +2129,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B125" s="2">
         <v>43</v>
@@ -2148,7 +2137,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B126" s="2">
         <v>34</v>
@@ -2156,7 +2145,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B127" s="2">
         <v>50</v>
@@ -2164,7 +2153,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B128" s="2">
         <v>10</v>
@@ -2172,7 +2161,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B129" s="2">
         <v>3</v>
@@ -2180,7 +2169,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B130" s="2">
         <v>11</v>
@@ -2188,7 +2177,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
@@ -2196,7 +2185,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B132" s="2">
         <v>5</v>
@@ -2204,7 +2193,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B133" s="2">
         <v>274</v>
@@ -2212,7 +2201,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B134" s="2">
         <v>223</v>
@@ -2220,7 +2209,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B135" s="2">
         <v>8</v>
@@ -2228,7 +2217,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B136" s="2">
         <v>7</v>
@@ -2236,7 +2225,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B137" s="2">
         <v>52</v>
@@ -2244,63 +2233,63 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="B138" s="2">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B139" s="2">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B140" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B141" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B142" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B143" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B144" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B145" s="2">
         <v>8</v>
@@ -2308,215 +2297,215 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B146" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B147" s="2">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B148" s="2">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B149" s="2">
-        <v>210</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B150" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B151" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B152" s="2">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B153" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B154" s="2">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="B155" s="2">
-        <v>101</v>
+        <v>328</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="B156" s="2">
-        <v>328</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B157" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B158" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B159" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B160" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B161" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B162" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B163" s="2">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B164" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B165" s="2">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B166" s="2">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B167" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B168" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B169" s="2">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B170" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B171" s="2">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B172" s="2">
         <v>2</v>
@@ -2524,95 +2513,95 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B173" s="2">
-        <v>2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B174" s="2">
-        <v>177</v>
+        <v>236</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B175" s="2">
-        <v>236</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B176" s="2">
-        <v>2</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B177" s="2">
-        <v>320</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B178" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B179" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B180" s="2">
-        <v>3</v>
+        <v>134</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B181" s="2">
-        <v>134</v>
+        <v>106</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B182" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B183" s="2">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B184" s="2">
         <v>11</v>
@@ -2620,7 +2609,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B185" s="2">
         <v>3</v>
@@ -2628,7 +2617,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B186" s="2">
         <v>42</v>
@@ -2636,7 +2625,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B187" s="2">
         <v>4</v>
@@ -2644,7 +2633,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B188" s="2">
         <v>4</v>
@@ -2652,7 +2641,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B189" s="2">
         <v>6</v>
@@ -2660,7 +2649,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B190" s="2">
         <v>22</v>
@@ -2668,7 +2657,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B191" s="2">
         <v>63</v>
@@ -2676,7 +2665,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B192" s="2">
         <v>108</v>
@@ -2684,7 +2673,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B193" s="2">
         <v>9</v>
@@ -2692,7 +2681,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B194" s="2">
         <v>2</v>
@@ -2700,7 +2689,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2">
         <v>21</v>
@@ -2708,7 +2697,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B196" s="2">
         <v>155</v>
@@ -2716,7 +2705,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B197" s="2">
         <v>5</v>
@@ -2724,7 +2713,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B198" s="2">
         <v>613</v>
@@ -2732,7 +2721,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B199" s="2">
         <v>11</v>
@@ -2740,7 +2729,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B200" s="2">
         <v>63</v>
@@ -2748,7 +2737,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B201" s="2">
         <v>3</v>
@@ -2756,7 +2745,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B202" s="2">
         <v>44</v>
@@ -2764,7 +2753,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B203" s="2">
         <v>18</v>
@@ -2772,7 +2761,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B204" s="2">
         <v>4</v>
@@ -2780,7 +2769,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B205" s="2">
         <v>5</v>
@@ -2788,7 +2777,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B206" s="2">
         <v>24</v>
@@ -2796,14 +2785,14 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B207" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B207">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F207">
     <sortCondition ref="A2:A207"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2814,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B0A23-9814-D045-9163-D5049203E195}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C94"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A94" sqref="A2:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2826,13 +2815,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2947,7 +2936,7 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5">
         <v>2351627</v>
@@ -2958,7 +2947,7 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="5">
         <v>212559417</v>
@@ -2969,7 +2958,7 @@
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5">
         <v>6948445</v>
@@ -2980,7 +2969,7 @@
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5">
         <v>20903273</v>
@@ -2991,7 +2980,7 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="5">
         <v>37742154</v>
@@ -3002,7 +2991,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B17" s="5">
         <v>1439323776</v>
@@ -3013,7 +3002,7 @@
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="5">
         <v>50882891</v>
@@ -3024,7 +3013,7 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" s="5">
         <v>26378274</v>
@@ -3035,7 +3024,7 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5">
         <v>4105267</v>
@@ -3046,7 +3035,7 @@
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" s="5">
         <v>11326616</v>
@@ -3057,7 +3046,7 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5">
         <v>10551219</v>
@@ -3068,7 +3057,7 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="5">
         <v>5792202</v>
@@ -3079,7 +3068,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5">
         <v>10847910</v>
@@ -3090,7 +3079,7 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="5">
         <v>17643054</v>
@@ -3101,7 +3090,7 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" s="5">
         <v>102334404</v>
@@ -3112,7 +3101,7 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B27" s="5">
         <v>1326535</v>
@@ -3123,7 +3112,7 @@
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" s="5">
         <v>114963588</v>
@@ -3134,7 +3123,7 @@
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5">
         <v>896445</v>
@@ -3145,7 +3134,7 @@
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B30" s="5">
         <v>5540720</v>
@@ -3156,7 +3145,7 @@
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B31" s="5">
         <v>65273511</v>
@@ -3321,7 +3310,7 @@
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="5">
         <v>2961167</v>
@@ -3332,7 +3321,7 @@
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="5">
         <v>126476461</v>
@@ -3343,7 +3332,7 @@
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" s="5">
         <v>10203134</v>
@@ -3354,7 +3343,7 @@
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="5">
         <v>18776707</v>
@@ -3365,7 +3354,7 @@
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="5">
         <v>53771296</v>
@@ -3376,7 +3365,7 @@
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" s="5">
         <v>1859203</v>
@@ -3387,7 +3376,7 @@
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="5">
         <v>4270571</v>
@@ -3398,7 +3387,7 @@
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="5">
         <v>6524195</v>
@@ -3409,7 +3398,7 @@
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B54" s="5">
         <v>1886198</v>
@@ -3420,7 +3409,7 @@
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="5">
         <v>2722289</v>
@@ -3431,7 +3420,7 @@
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B56" s="5">
         <v>2078453</v>
@@ -3442,7 +3431,7 @@
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B57" s="5">
         <v>32365999</v>
@@ -3453,7 +3442,7 @@
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B58" s="5">
         <v>128932753</v>
@@ -3464,7 +3453,7 @@
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B59" s="5">
         <v>4033963</v>
@@ -3475,7 +3464,7 @@
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B60" s="5">
         <v>3278290</v>
@@ -3486,7 +3475,7 @@
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" s="5">
         <v>36910560</v>
@@ -3497,7 +3486,7 @@
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62" s="5">
         <v>2540905</v>
@@ -3508,7 +3497,7 @@
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B63" s="5">
         <v>17134872</v>
@@ -3519,7 +3508,7 @@
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B64" s="5">
         <v>4822233</v>
@@ -3530,7 +3519,7 @@
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B65" s="5">
         <v>206139589</v>
@@ -3618,7 +3607,7 @@
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B73" s="5">
         <v>144096812</v>
@@ -3629,7 +3618,7 @@
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="5">
         <v>33931</v>
@@ -3640,7 +3629,7 @@
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="5">
         <v>34813871</v>
@@ -3651,7 +3640,7 @@
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="5">
         <v>8737371</v>
@@ -3662,7 +3651,7 @@
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="5">
         <v>5459642</v>
@@ -3673,7 +3662,7 @@
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78" s="5">
         <v>2078938</v>
@@ -3684,7 +3673,7 @@
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B79" s="5">
         <v>59308690</v>
@@ -3695,7 +3684,7 @@
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="5">
         <v>51269185</v>
@@ -3706,7 +3695,7 @@
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="5">
         <v>46754778</v>
@@ -3717,7 +3706,7 @@
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" s="5">
         <v>10099265</v>
@@ -3728,7 +3717,7 @@
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B83" s="5">
         <v>8654622</v>
@@ -3739,7 +3728,7 @@
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="5">
         <v>18502413</v>
@@ -3750,7 +3739,7 @@
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B85" s="5">
         <v>23510000</v>
@@ -3761,7 +3750,7 @@
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B86" s="5">
         <v>69799978</v>
@@ -3772,7 +3761,7 @@
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B87" s="5">
         <v>11818619</v>
@@ -3783,7 +3772,7 @@
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B88" s="5">
         <v>84339067</v>
@@ -3794,7 +3783,7 @@
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B89" s="5">
         <v>6031200</v>
@@ -3805,7 +3794,7 @@
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B90" s="5">
         <v>45741007</v>
@@ -3816,7 +3805,7 @@
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B91" s="5">
         <v>43733762</v>
@@ -3827,7 +3816,7 @@
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B92" s="5">
         <v>331002651</v>
@@ -3838,7 +3827,7 @@
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" s="5">
         <v>33469203</v>
@@ -3849,7 +3838,7 @@
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B94" s="5">
         <v>31108083</v>
@@ -3870,7 +3859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E063B-465F-FF4D-B4FF-4ABE654D1EB2}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -3882,28 +3871,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" t="s">
         <v>218</v>
       </c>
-      <c r="F1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" t="s">
-        <v>221</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -3926,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(D2:F2)</f>
+        <f t="shared" ref="G2:G33" si="0">SUM(D2:F2)</f>
         <v>3</v>
       </c>
       <c r="H2" s="5">
@@ -3956,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4">
-        <f>SUM(D3:F3)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H3" s="5">
@@ -3986,7 +3975,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="4">
-        <f>SUM(D4:F4)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="H4" s="5">
@@ -4016,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="4">
-        <f>SUM(D5:F5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H5" s="5">
@@ -4046,7 +4035,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="4">
-        <f>SUM(D6:F6)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H6" s="5">
@@ -4076,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="4">
-        <f>SUM(D7:F7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H7" s="5">
@@ -4106,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <f>SUM(D8:F8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="5">
@@ -4136,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(D9:F9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H9" s="5">
@@ -4166,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="4">
-        <f>SUM(D10:F10)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H10" s="5">
@@ -4196,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <f>SUM(D11:F11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="5">
@@ -4211,7 +4200,7 @@
         <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="4">
         <v>2020</v>
@@ -4226,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <f>SUM(D12:F12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="5">
@@ -4241,7 +4230,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4">
         <v>2020</v>
@@ -4256,7 +4245,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="4">
-        <f>SUM(D13:F13)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H13" s="5">
@@ -4271,7 +4260,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4">
         <v>2020</v>
@@ -4286,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="4">
-        <f>SUM(D14:F14)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H14" s="5">
@@ -4301,7 +4290,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4">
         <v>2020</v>
@@ -4316,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <f>SUM(D15:F15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="5">
@@ -4331,7 +4320,7 @@
         <v>66</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4">
         <v>2020</v>
@@ -4346,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="4">
-        <f>SUM(D16:F16)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H16" s="5">
@@ -4361,7 +4350,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4">
         <v>2020</v>
@@ -4376,7 +4365,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="4">
-        <f>SUM(D17:F17)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="H17" s="5">
@@ -4391,7 +4380,7 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="4">
         <v>2020</v>
@@ -4406,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4">
-        <f>SUM(D18:F18)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H18" s="5">
@@ -4421,7 +4410,7 @@
         <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C19" s="4">
         <v>2020</v>
@@ -4436,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4">
-        <f>SUM(D19:F19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="5">
@@ -4451,7 +4440,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4">
         <v>2020</v>
@@ -4466,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="4">
-        <f>SUM(D20:F20)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H20" s="5">
@@ -4481,7 +4470,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="4">
         <v>2020</v>
@@ -4496,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="4">
-        <f>SUM(D21:F21)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H21" s="5">
@@ -4511,7 +4500,7 @@
         <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4">
         <v>2020</v>
@@ -4526,7 +4515,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="4">
-        <f>SUM(D22:F22)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H22" s="5">
@@ -4541,7 +4530,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4">
         <v>2020</v>
@@ -4556,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="4">
-        <f>SUM(D23:F23)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H23" s="5">
@@ -4571,7 +4560,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4">
         <v>2020</v>
@@ -4586,7 +4575,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="4">
-        <f>SUM(D24:F24)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H24" s="5">
@@ -4601,7 +4590,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4">
         <v>2020</v>
@@ -4616,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <f>SUM(D25:F25)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H25" s="5">
@@ -4631,7 +4620,7 @@
         <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C26" s="4">
         <v>2020</v>
@@ -4646,7 +4635,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="4">
-        <f>SUM(D26:F26)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H26" s="5">
@@ -4661,7 +4650,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C27" s="4">
         <v>2020</v>
@@ -4676,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="4">
-        <f>SUM(D27:F27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H27" s="5">
@@ -4691,7 +4680,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="4">
         <v>2020</v>
@@ -4706,7 +4695,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="4">
-        <f>SUM(D28:F28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H28" s="5">
@@ -4721,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C29" s="4">
         <v>2020</v>
@@ -4736,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4">
-        <f>SUM(D29:F29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H29" s="5">
@@ -4751,7 +4740,7 @@
         <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C30" s="4">
         <v>2020</v>
@@ -4766,7 +4755,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="4">
-        <f>SUM(D30:F30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H30" s="5">
@@ -4781,7 +4770,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C31" s="4">
         <v>2020</v>
@@ -4796,7 +4785,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="4">
-        <f>SUM(D31:F31)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="H31" s="5">
@@ -4826,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4">
-        <f>SUM(D32:F32)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H32" s="5">
@@ -4856,7 +4845,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="4">
-        <f>SUM(D33:F33)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="H33" s="5">
@@ -4886,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4">
-        <f>SUM(D34:F34)</f>
+        <f t="shared" ref="G34:G65" si="1">SUM(D34:F34)</f>
         <v>1</v>
       </c>
       <c r="H34" s="5">
@@ -4916,7 +4905,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="4">
-        <f>SUM(D35:F35)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="H35" s="5">
@@ -4946,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4">
-        <f>SUM(D36:F36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H36" s="5">
@@ -4976,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <f>SUM(D37:F37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H37" s="5">
@@ -5006,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="4">
-        <f>SUM(D38:F38)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H38" s="5">
@@ -5036,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="4">
-        <f>SUM(D39:F39)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H39" s="5">
@@ -5066,7 +5055,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="4">
-        <f>SUM(D40:F40)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H40" s="5">
@@ -5096,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="4">
-        <f>SUM(D41:F41)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H41" s="5">
@@ -5126,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="4">
-        <f>SUM(D42:F42)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H42" s="5">
@@ -5156,7 +5145,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="4">
-        <f>SUM(D43:F43)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H43" s="5">
@@ -5186,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="4">
-        <f>SUM(D44:F44)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H44" s="5">
@@ -5216,7 +5205,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="4">
-        <f>SUM(D45:F45)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H45" s="5">
@@ -5231,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="4">
         <v>2020</v>
@@ -5246,7 +5235,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="4">
-        <f>SUM(D46:F46)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H46" s="5">
@@ -5261,7 +5250,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="4">
         <v>2020</v>
@@ -5276,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="4">
-        <f>SUM(D47:F47)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="H47" s="5">
@@ -5291,7 +5280,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C48" s="4">
         <v>2020</v>
@@ -5306,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4">
-        <f>SUM(D48:F48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H48" s="5">
@@ -5321,7 +5310,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="4">
         <v>2020</v>
@@ -5336,7 +5325,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="4">
-        <f>SUM(D49:F49)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H49" s="5">
@@ -5351,7 +5340,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="4">
         <v>2020</v>
@@ -5366,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="4">
-        <f>SUM(D50:F50)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H50" s="5">
@@ -5381,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="4">
         <v>2020</v>
@@ -5396,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f>SUM(D51:F51)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H51" s="5">
@@ -5411,7 +5400,7 @@
         <v>87</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="4">
         <v>2020</v>
@@ -5426,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4">
-        <f>SUM(D52:F52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H52" s="5">
@@ -5441,7 +5430,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="4">
         <v>2020</v>
@@ -5456,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4">
-        <f>SUM(D53:F53)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H53" s="5">
@@ -5471,7 +5460,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4">
         <v>2020</v>
@@ -5486,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="4">
-        <f>SUM(D54:F54)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H54" s="5">
@@ -5501,7 +5490,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="4">
         <v>2020</v>
@@ -5516,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <f>SUM(D55:F55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H55" s="5">
@@ -5531,7 +5520,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C56" s="4">
         <v>2020</v>
@@ -5546,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="4">
-        <f>SUM(D56:F56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H56" s="5">
@@ -5561,7 +5550,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4">
         <v>2020</v>
@@ -5576,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4">
-        <f>SUM(D57:F57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H57" s="5">
@@ -5591,7 +5580,7 @@
         <v>92</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4">
         <v>2020</v>
@@ -5606,7 +5595,7 @@
         <v>4</v>
       </c>
       <c r="G58" s="4">
-        <f>SUM(D58:F58)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H58" s="5">
@@ -5621,7 +5610,7 @@
         <v>31</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C59" s="4">
         <v>2020</v>
@@ -5636,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="4">
-        <f>SUM(D59:F59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H59" s="5">
@@ -5651,7 +5640,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4">
         <v>2020</v>
@@ -5666,7 +5655,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="4">
-        <f>SUM(D60:F60)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H60" s="5">
@@ -5681,7 +5670,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4">
         <v>2020</v>
@@ -5696,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="4">
-        <f>SUM(D61:F61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H61" s="5">
@@ -5711,7 +5700,7 @@
         <v>28</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C62" s="4">
         <v>2020</v>
@@ -5726,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f>SUM(D62:F62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" s="5">
@@ -5741,7 +5730,7 @@
         <v>36</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4">
         <v>2020</v>
@@ -5756,7 +5745,7 @@
         <v>14</v>
       </c>
       <c r="G63" s="4">
-        <f>SUM(D63:F63)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="H63" s="5">
@@ -5771,7 +5760,7 @@
         <v>24</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4">
         <v>2020</v>
@@ -5786,7 +5775,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="4">
-        <f>SUM(D64:F64)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H64" s="5">
@@ -5801,7 +5790,7 @@
         <v>88</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C65" s="4">
         <v>2020</v>
@@ -5816,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="4">
-        <f>SUM(D65:F65)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H65" s="5">
@@ -5846,7 +5835,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="4">
-        <f>SUM(D66:F66)</f>
+        <f t="shared" ref="G66:G97" si="2">SUM(D66:F66)</f>
         <v>8</v>
       </c>
       <c r="H66" s="5">
@@ -5876,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="4">
-        <f>SUM(D67:F67)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H67" s="5">
@@ -5906,7 +5895,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="4">
-        <f>SUM(D68:F68)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H68" s="5">
@@ -5936,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="4">
-        <f>SUM(D69:F69)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H69" s="5">
@@ -5966,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="4">
-        <f>SUM(D70:F70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H70" s="5">
@@ -5996,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="4">
-        <f>SUM(D71:F71)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H71" s="5">
@@ -6026,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <f>SUM(D72:F72)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H72" s="5">
@@ -6041,7 +6030,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C73" s="4">
         <v>2020</v>
@@ -6056,7 +6045,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="4">
-        <f>SUM(D73:F73)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="H73" s="5">
@@ -6071,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4">
         <v>2020</v>
@@ -6086,7 +6075,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="4">
-        <f>SUM(D74:F74)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H74" s="5">
@@ -6101,7 +6090,7 @@
         <v>93</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="4">
         <v>2020</v>
@@ -6116,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="4">
-        <f>SUM(D75:F75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H75" s="5">
@@ -6131,7 +6120,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" s="4">
         <v>2020</v>
@@ -6146,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="4">
-        <f>SUM(D76:F76)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H76" s="5">
@@ -6161,7 +6150,7 @@
         <v>35</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="4">
         <v>2020</v>
@@ -6176,7 +6165,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="4">
-        <f>SUM(D77:F77)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H77" s="5">
@@ -6191,7 +6180,7 @@
         <v>18</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="4">
         <v>2020</v>
@@ -6206,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="4">
-        <f>SUM(D78:F78)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H78" s="5">
@@ -6221,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="4">
         <v>2020</v>
@@ -6236,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <f>SUM(D79:F79)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H79" s="5">
@@ -6251,7 +6240,7 @@
         <v>72</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="4">
         <v>2020</v>
@@ -6266,7 +6255,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="4">
-        <f>SUM(D80:F80)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H80" s="5">
@@ -6281,7 +6270,7 @@
         <v>75</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C81" s="4">
         <v>2020</v>
@@ -6296,7 +6285,7 @@
         <v>6</v>
       </c>
       <c r="G81" s="4">
-        <f>SUM(D81:F81)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="H81" s="5">
@@ -6311,7 +6300,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C82" s="4">
         <v>2020</v>
@@ -6326,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f>SUM(D82:F82)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H82" s="5">
@@ -6341,7 +6330,7 @@
         <v>59</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="4">
         <v>2020</v>
@@ -6356,7 +6345,7 @@
         <v>6</v>
       </c>
       <c r="G83" s="4">
-        <f>SUM(D83:F83)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H83" s="5">
@@ -6371,7 +6360,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="4">
         <v>2020</v>
@@ -6386,7 +6375,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="4">
-        <f>SUM(D84:F84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H84" s="5">
@@ -6401,7 +6390,7 @@
         <v>51</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C85" s="4">
         <v>2020</v>
@@ -6416,7 +6405,7 @@
         <v>6</v>
       </c>
       <c r="G85" s="4">
-        <f>SUM(D85:F85)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H85" s="5">
@@ -6431,7 +6420,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C86" s="4">
         <v>2020</v>
@@ -6446,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="4">
-        <f>SUM(D86:F86)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H86" s="5">
@@ -6461,7 +6450,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C87" s="4">
         <v>2020</v>
@@ -6476,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="4">
-        <f>SUM(D87:F87)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H87" s="5">
@@ -6491,7 +6480,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C88" s="4">
         <v>2020</v>
@@ -6506,7 +6495,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="4">
-        <f>SUM(D88:F88)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="H88" s="5">
@@ -6521,7 +6510,7 @@
         <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4">
         <v>2020</v>
@@ -6536,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="4">
-        <f>SUM(D89:F89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H89" s="5">
@@ -6551,7 +6540,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="4">
         <v>2020</v>
@@ -6566,7 +6555,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="4">
-        <f>SUM(D90:F90)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H90" s="5">
@@ -6581,7 +6570,7 @@
         <v>21</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4">
         <v>2020</v>
@@ -6596,7 +6585,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="4">
-        <f>SUM(D91:F91)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="H91" s="5">
@@ -6611,7 +6600,7 @@
         <v>83</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C92" s="4">
         <v>2020</v>
@@ -6626,7 +6615,7 @@
         <v>33</v>
       </c>
       <c r="G92" s="4">
-        <f>SUM(D92:F92)</f>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="H92" s="5">
@@ -6641,7 +6630,7 @@
         <v>19</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="4">
         <v>2020</v>
@@ -6656,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="4">
-        <f>SUM(D93:F93)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H93" s="5">
@@ -6671,7 +6660,7 @@
         <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C94" s="4">
         <v>2020</v>
@@ -6686,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="4">
-        <f>SUM(D94:F94)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H94" s="5">
@@ -6720,16 +6709,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6863,7 +6852,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4">
         <v>17.41</v>
@@ -6875,7 +6864,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4">
         <v>2053.59</v>
@@ -6887,7 +6876,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4">
         <v>58.22</v>
@@ -6899,7 +6888,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="4">
         <v>12.32</v>
@@ -6911,7 +6900,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="4">
         <v>1647.12</v>
@@ -6923,7 +6912,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4">
         <v>12237.7</v>
@@ -6935,7 +6924,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="4">
         <v>314.45999999999998</v>
@@ -6947,7 +6936,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="4">
         <v>37.35</v>
@@ -6959,7 +6948,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4">
         <v>55.21</v>
@@ -6971,7 +6960,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22" s="4">
         <v>96.85</v>
@@ -6983,7 +6972,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4">
         <v>215.22</v>
@@ -6995,7 +6984,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4">
         <v>329.87</v>
@@ -7007,7 +6996,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C25" s="4">
         <v>75.930000000000007</v>
@@ -7019,7 +7008,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4">
         <v>104.3</v>
@@ -7031,7 +7020,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="4">
         <v>235.37</v>
@@ -7043,7 +7032,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="4">
         <v>26.61</v>
@@ -7055,7 +7044,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" s="4">
         <v>80.56</v>
@@ -7067,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4">
         <v>5.0599999999999996</v>
@@ -7079,7 +7068,7 @@
         <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4">
         <v>252.3</v>
@@ -7091,7 +7080,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C32" s="4">
         <v>2582.5</v>
@@ -7271,7 +7260,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="4">
         <v>14.78</v>
@@ -7283,7 +7272,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="4">
         <v>4872.42</v>
@@ -7295,7 +7284,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C49" s="4">
         <v>40.07</v>
@@ -7307,7 +7296,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="4">
         <v>162.88999999999999</v>
@@ -7319,7 +7308,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="4">
         <v>79.260000000000005</v>
@@ -7331,7 +7320,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="4">
         <v>18.84</v>
@@ -7343,7 +7332,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" s="4">
         <v>120.13</v>
@@ -7355,7 +7344,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="4">
         <v>7.56</v>
@@ -7367,7 +7356,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C55" s="4">
         <v>30.46</v>
@@ -7379,7 +7368,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="4">
         <v>47.54</v>
@@ -7391,7 +7380,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C57" s="4">
         <v>10.17</v>
@@ -7403,7 +7392,7 @@
         <v>85</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" s="4">
         <v>314.70999999999998</v>
@@ -7415,7 +7404,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4">
         <v>1150.8900000000001</v>
@@ -7427,7 +7416,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C60" s="4">
         <v>8.1300000000000008</v>
@@ -7439,7 +7428,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C61" s="4">
         <v>11.43</v>
@@ -7451,7 +7440,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C62" s="4">
         <v>109.71</v>
@@ -7463,7 +7452,7 @@
         <v>28</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" s="4">
         <v>13.25</v>
@@ -7475,7 +7464,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C64" s="4">
         <v>830.57</v>
@@ -7487,7 +7476,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" s="4">
         <v>204.14</v>
@@ -7499,7 +7488,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C66" s="4">
         <v>375.75</v>
@@ -7595,7 +7584,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4">
         <v>1857.77</v>
@@ -7607,7 +7596,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4">
         <v>1.63</v>
@@ -7619,7 +7608,7 @@
         <v>93</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" s="4">
         <v>686.74</v>
@@ -7631,7 +7620,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="4">
         <v>41.43</v>
@@ -7643,7 +7632,7 @@
         <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="4">
         <v>95.62</v>
@@ -7655,7 +7644,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="4">
         <v>48.77</v>
@@ -7667,7 +7656,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="4">
         <v>348.87</v>
@@ -7679,7 +7668,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="4">
         <v>1530.75</v>
@@ -7691,7 +7680,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C82" s="4">
         <v>1314.31</v>
@@ -7703,7 +7692,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4">
         <v>535.61</v>
@@ -7715,7 +7704,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" s="4">
         <v>678.97</v>
@@ -7727,7 +7716,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" s="4">
         <v>52.58</v>
@@ -7739,7 +7728,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C86" s="4">
         <v>466</v>
@@ -7751,7 +7740,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="4">
         <v>455.3</v>
@@ -7763,7 +7752,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C88" s="4">
         <v>39.950000000000003</v>
@@ -7775,7 +7764,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="4">
         <v>851.55</v>
@@ -7787,7 +7776,7 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C90" s="4">
         <v>37.93</v>
@@ -7799,7 +7788,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C91" s="4">
         <v>26</v>
@@ -7811,7 +7800,7 @@
         <v>21</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C92" s="4">
         <v>112.15</v>
@@ -7823,7 +7812,7 @@
         <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C93" s="4">
         <v>19485.39</v>
@@ -7835,7 +7824,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C94" s="4">
         <v>49.68</v>
@@ -7847,7 +7836,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C95" s="4">
         <v>316.48</v>

--- a/2020 Data for Medals.xlsx
+++ b/2020 Data for Medals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E33BF3-10ED-DE43-BBAE-D9E5FC2BA4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF17F6E-E954-6A4B-9D6B-8C080B535A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{7FEB65AE-3C9B-7F4F-934F-EEB9E4E7E2F6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{7FEB65AE-3C9B-7F4F-934F-EEB9E4E7E2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="220">
-  <si>
-    <t>No. of Athletes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="220">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -709,7 +706,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Country </t>
+    <t>YearCountry</t>
+  </si>
+  <si>
+    <t>Athletes</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1122,7 @@
   <dimension ref="A1:E207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>9</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>44</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>20</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>174</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2">
         <v>17</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2">
         <v>478</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
         <v>60</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>44</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>16</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>32</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="2">
         <v>8</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2">
         <v>101</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
         <v>121</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2">
         <v>7</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2">
         <v>4</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2">
         <v>5</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2">
         <v>7</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2">
         <v>13</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="2">
         <v>302</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -1376,7 +1376,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2">
         <v>42</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2">
         <v>7</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="2">
         <v>6</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2">
         <v>3</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2">
         <v>12</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2">
         <v>370</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2">
         <v>6</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="2">
         <v>57</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2">
         <v>406</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="2">
         <v>71</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="2">
         <v>6</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" s="2">
         <v>12</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B47" s="2">
         <v>28</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="2">
         <v>59</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2">
         <v>68</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B50" s="2">
         <v>13</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="2">
         <v>115</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="2">
         <v>7</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2">
         <v>105</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="2">
         <v>60</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" s="2">
         <v>41</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2">
         <v>133</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="2">
         <v>13</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B63" s="2">
         <v>33</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B65" s="2">
         <v>36</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" s="2">
         <v>29</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B68" s="2">
         <v>30</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B69" s="2">
         <v>398</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2">
         <v>5</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2">
         <v>30</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="2">
         <v>425</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="2">
         <v>14</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2">
         <v>376</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B75" s="2">
         <v>83</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2">
         <v>6</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="2">
         <v>5</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" s="2">
         <v>23</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="2">
         <v>5</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80" s="2">
         <v>4</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="2">
         <v>7</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="2">
         <v>6</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="2">
         <v>21</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="2">
         <v>42</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B85" s="2">
         <v>166</v>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" s="2">
         <v>4</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B87" s="2">
         <v>125</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B88" s="2">
         <v>28</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="2">
         <v>66</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B90" s="2">
         <v>4</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B91" s="2">
         <v>116</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="2">
         <v>90</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93" s="2">
         <v>372</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B94" s="2">
         <v>50</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B95" s="2">
         <v>552</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2">
         <v>14</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B97" s="2">
         <v>93</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="2">
         <v>85</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="2">
         <v>3</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B100" s="2">
         <v>11</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" s="2">
         <v>11</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="2">
         <v>16</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2">
         <v>4</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2">
         <v>33</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>8</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2">
         <v>2</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2">
         <v>3</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2">
         <v>4</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2">
         <v>5</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2">
         <v>41</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2">
         <v>12</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B112" s="2">
         <v>8</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2">
         <v>6</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2">
         <v>5</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2">
         <v>30</v>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2">
         <v>4</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2">
         <v>4</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2">
         <v>6</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" s="2">
         <v>2</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2">
         <v>2</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2">
         <v>8</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2">
         <v>164</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B123" s="2">
         <v>19</v>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B124" s="2">
         <v>6</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B125" s="2">
         <v>43</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2">
         <v>34</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127" s="2">
         <v>50</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B128" s="2">
         <v>10</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" s="2">
         <v>3</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B130" s="2">
         <v>11</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B131" s="2">
         <v>2</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B132" s="2">
         <v>5</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B133" s="2">
         <v>274</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B134" s="2">
         <v>223</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B135" s="2">
         <v>8</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B136" s="2">
         <v>7</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B137" s="2">
         <v>52</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" s="2">
         <v>75</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B139" s="2">
         <v>4</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140" s="2">
         <v>10</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B141" s="2">
         <v>3</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B142" s="2">
         <v>5</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B143" s="2">
         <v>10</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" s="2">
         <v>8</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145" s="2">
         <v>8</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B146" s="2">
         <v>34</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B147" s="2">
         <v>19</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B148" s="2">
         <v>210</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B149" s="2">
         <v>92</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B150" s="2">
         <v>37</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B151" s="2">
         <v>16</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B152" s="2">
         <v>29</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B153" s="2">
         <v>3</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B154" s="2">
         <v>101</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B155" s="2">
         <v>328</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B156" s="2">
         <v>6</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B157" s="2">
         <v>3</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B158" s="2">
         <v>5</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B159" s="2">
         <v>3</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B160" s="2">
         <v>8</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B161" s="2">
         <v>5</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B162" s="2">
         <v>3</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B163" s="2">
         <v>29</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B164" s="2">
         <v>9</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B165" s="2">
         <v>86</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B166" s="2">
         <v>5</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B167" s="2">
         <v>4</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B168" s="2">
         <v>22</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B169" s="2">
         <v>41</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B170" s="2">
         <v>53</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B171" s="2">
         <v>2</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B172" s="2">
         <v>2</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B173" s="2">
         <v>177</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B174" s="2">
         <v>236</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B175" s="2">
         <v>2</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B176" s="2">
         <v>320</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B177" s="2">
         <v>9</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B178" s="2">
         <v>5</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B179" s="2">
         <v>3</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B180" s="2">
         <v>134</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B181" s="2">
         <v>106</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B182" s="2">
         <v>6</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B183" s="2">
         <v>59</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B184" s="2">
         <v>11</v>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B185" s="2">
         <v>3</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B186" s="2">
         <v>42</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B187" s="2">
         <v>4</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B188" s="2">
         <v>4</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B189" s="2">
         <v>6</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B190" s="2">
         <v>22</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B191" s="2">
         <v>63</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B192" s="2">
         <v>108</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B193" s="2">
         <v>9</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B194" s="2">
         <v>2</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195" s="2">
         <v>21</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196" s="2">
         <v>155</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B197" s="2">
         <v>5</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B198" s="2">
         <v>613</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B199" s="2">
         <v>11</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B200" s="2">
         <v>63</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B201" s="2">
         <v>3</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B202" s="2">
         <v>44</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B203" s="2">
         <v>18</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204" s="2">
         <v>4</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B205" s="2">
         <v>5</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B206" s="2">
         <v>24</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B207" s="2">
         <v>5</v>
@@ -2803,7 +2803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31B0A23-9814-D045-9163-D5049203E195}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A94" sqref="A2:A94"/>
     </sheetView>
   </sheetViews>
@@ -2815,18 +2815,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>45195774</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>2963243</v>
@@ -2848,7 +2848,7 @@
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5">
         <v>25499884</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
         <v>9006398</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>10139177</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>393244</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5">
         <v>1701575</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5">
         <v>9449323</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5">
         <v>11589623</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5">
         <v>63918</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>2351627</v>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5">
         <v>212559417</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5">
         <v>6948445</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="5">
         <v>20903273</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="5">
         <v>37742154</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="5">
         <v>1439323776</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5">
         <v>50882891</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="5">
         <v>26378274</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5">
         <v>4105267</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="5">
         <v>11326616</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5">
         <v>10551219</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="5">
         <v>5792202</v>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5">
         <v>10847910</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" s="5">
         <v>17643054</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26" s="5">
         <v>102334404</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="5">
         <v>1326535</v>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5">
         <v>114963588</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5">
         <v>896445</v>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="5">
         <v>5540720</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="5">
         <v>65273511</v>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="5">
         <v>3989167</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="5">
         <v>83783942</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="5">
         <v>31072940</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="5">
         <v>65138232</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="5">
         <v>10423054</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="5">
         <v>112523</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="5">
         <v>7496981</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5">
         <v>9660351</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="5">
         <v>1380004385</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="5">
         <v>273523615</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5">
         <v>83992949</v>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="5">
         <v>4937786</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="5">
         <v>8655535</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5">
         <v>60461826</v>
@@ -3310,7 +3310,7 @@
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="5">
         <v>2961167</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="5">
         <v>126476461</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="5">
         <v>10203134</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49" s="5">
         <v>18776707</v>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="5">
         <v>53771296</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5">
         <v>1859203</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="5">
         <v>4270571</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="5">
         <v>6524195</v>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5">
         <v>1886198</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="5">
         <v>2722289</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="5">
         <v>2078453</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="5">
         <v>32365999</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="5">
         <v>128932753</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="5">
         <v>4033963</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B60" s="5">
         <v>3278290</v>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="5">
         <v>36910560</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="5">
         <v>2540905</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="5">
         <v>17134872</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="5">
         <v>4822233</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B65" s="5">
         <v>206139589</v>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="5">
         <v>5421241</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="5">
         <v>109581078</v>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B68" s="5">
         <v>37846611</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="5">
         <v>10196709</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="5">
         <v>3474182</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="5">
         <v>2881053</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="5">
         <v>19237691</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B73" s="5">
         <v>144096812</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="5">
         <v>33931</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="5">
         <v>34813871</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="5">
         <v>8737371</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B77" s="5">
         <v>5459642</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="5">
         <v>2078938</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="5">
         <v>59308690</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" s="5">
         <v>51269185</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" s="5">
         <v>46754778</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B82" s="5">
         <v>10099265</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B83" s="5">
         <v>8654622</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="5">
         <v>18502413</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="5">
         <v>23510000</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="5">
         <v>69799978</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87" s="5">
         <v>11818619</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88" s="5">
         <v>84339067</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" s="5">
         <v>6031200</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B90" s="5">
         <v>45741007</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B91" s="5">
         <v>43733762</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B92" s="5">
         <v>331002651</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" s="5">
         <v>33469203</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" s="5">
         <v>31108083</v>
@@ -3859,48 +3859,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407E063B-465F-FF4D-B4FF-4ABE654D1EB2}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>206</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>90</v>
+      <c r="A2" s="4" t="str">
+        <f>C2&amp;B2</f>
+        <v>2020Argentina</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4">
         <v>2020</v>
@@ -3926,11 +3931,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>9</v>
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A66" si="1">C3&amp;B3</f>
+        <v>2020Armenia</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>2020</v>
@@ -3956,11 +3962,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>39</v>
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Australia</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4">
         <v>2020</v>
@@ -3986,11 +3993,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>74</v>
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Austria</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>2020</v>
@@ -4016,11 +4024,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>22</v>
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Azerbaijan</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>2020</v>
@@ -4046,11 +4055,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>7</v>
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Bahamas</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4">
         <v>2020</v>
@@ -4076,11 +4086,12 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>45</v>
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Bahrain</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4">
         <v>2020</v>
@@ -4106,11 +4117,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>23</v>
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Belarus</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
         <v>2020</v>
@@ -4136,11 +4148,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>62</v>
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Belgium</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4">
         <v>2020</v>
@@ -4166,11 +4179,12 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>8</v>
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Bermuda</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4">
         <v>2020</v>
@@ -4196,11 +4210,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>44</v>
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Botswana</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4">
         <v>2020</v>
@@ -4226,11 +4241,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>77</v>
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Brazil</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="4">
         <v>2020</v>
@@ -4256,11 +4272,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>20</v>
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Bulgaria</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4">
         <v>2020</v>
@@ -4286,11 +4303,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>38</v>
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Burkina Faso</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4">
         <v>2020</v>
@@ -4316,11 +4334,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>66</v>
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Canada</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="4">
         <v>2020</v>
@@ -4346,11 +4365,12 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>80</v>
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020China</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="4">
         <v>2020</v>
@@ -4376,11 +4396,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>70</v>
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Colombia</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="4">
         <v>2020</v>
@@ -4406,11 +4427,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>73</v>
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Côte d'Ivoire</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="4">
         <v>2020</v>
@@ -4436,11 +4458,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>15</v>
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Croatia</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="4">
         <v>2020</v>
@@ -4466,11 +4489,12 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>14</v>
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Cuba</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" s="4">
         <v>2020</v>
@@ -4496,11 +4520,12 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>30</v>
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Czech Republic</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4">
         <v>2020</v>
@@ -4526,11 +4551,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>41</v>
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Denmark</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C23" s="4">
         <v>2020</v>
@@ -4556,11 +4582,12 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>32</v>
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Dominican Republic</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4">
         <v>2020</v>
@@ -4586,11 +4613,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>34</v>
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Ecuador</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" s="4">
         <v>2020</v>
@@ -4616,11 +4644,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>55</v>
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Egypt</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4">
         <v>2020</v>
@@ -4646,11 +4675,12 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>26</v>
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Estonia</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="4">
         <v>2020</v>
@@ -4676,11 +4706,12 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>33</v>
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Ethiopia</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" s="4">
         <v>2020</v>
@@ -4706,11 +4737,12 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>4</v>
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Fiji</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="4">
         <v>2020</v>
@@ -4736,11 +4768,12 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>89</v>
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Finland</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="4">
         <v>2020</v>
@@ -4766,11 +4799,12 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>68</v>
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020France</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C31" s="4">
         <v>2020</v>
@@ -4796,11 +4830,12 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>3</v>
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Georgia</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4">
         <v>2020</v>
@@ -4826,11 +4861,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>79</v>
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Germany</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4">
         <v>2020</v>
@@ -4856,11 +4892,12 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>82</v>
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Ghana</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="4">
         <v>2020</v>
@@ -4875,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" ref="G34:G65" si="1">SUM(D34:F34)</f>
+        <f t="shared" ref="G34:G65" si="2">SUM(D34:F34)</f>
         <v>1</v>
       </c>
       <c r="H34" s="5">
@@ -4886,11 +4923,12 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>42</v>
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Great Britain</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="4">
         <v>2020</v>
@@ -4905,7 +4943,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="H35" s="5">
@@ -4916,11 +4954,12 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>47</v>
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Greece</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="4">
         <v>2020</v>
@@ -4935,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H36" s="5">
@@ -4946,11 +4985,12 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>5</v>
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Grenada</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4">
         <v>2020</v>
@@ -4965,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H37" s="5">
@@ -4976,11 +5016,12 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>63</v>
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Hong Kong</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4">
         <v>2020</v>
@@ -4995,7 +5036,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H38" s="5">
@@ -5006,11 +5047,12 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>17</v>
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Hungary</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4">
         <v>2020</v>
@@ -5025,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H39" s="5">
@@ -5036,11 +5078,12 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>91</v>
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020India</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="4">
         <v>2020</v>
@@ -5055,7 +5098,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H40" s="5">
@@ -5066,11 +5109,12 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>86</v>
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Indonesia</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4">
         <v>2020</v>
@@ -5085,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H41" s="5">
@@ -5096,11 +5140,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>58</v>
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Iran</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="4">
         <v>2020</v>
@@ -5115,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H42" s="5">
@@ -5126,11 +5171,12 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>67</v>
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Ireland</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="4">
         <v>2020</v>
@@ -5145,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H43" s="5">
@@ -5156,11 +5202,12 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>71</v>
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Israel</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="4">
         <v>2020</v>
@@ -5175,7 +5222,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H44" s="5">
@@ -5186,11 +5233,12 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>57</v>
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Italy</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="4">
         <v>2020</v>
@@ -5205,7 +5253,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="H45" s="5">
@@ -5216,11 +5264,12 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>2</v>
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Jamaica</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" s="4">
         <v>2020</v>
@@ -5235,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H46" s="5">
@@ -5246,11 +5295,12 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>65</v>
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Japan</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4">
         <v>2020</v>
@@ -5265,7 +5315,7 @@
         <v>17</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="H47" s="5">
@@ -5276,11 +5326,12 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>40</v>
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Jordan</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="4">
         <v>2020</v>
@@ -5295,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H48" s="5">
@@ -5306,11 +5357,12 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>50</v>
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Kazakhstan</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="4">
         <v>2020</v>
@@ -5325,7 +5377,7 @@
         <v>8</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H49" s="5">
@@ -5336,11 +5388,12 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>16</v>
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Kenya</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="4">
         <v>2020</v>
@@ -5355,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H50" s="5">
@@ -5366,11 +5419,12 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>12</v>
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Kosovo</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="4">
         <v>2020</v>
@@ -5385,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H51" s="5">
@@ -5396,11 +5450,12 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>87</v>
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Kuwait</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="4">
         <v>2020</v>
@@ -5415,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H52" s="5">
@@ -5426,11 +5481,12 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>6</v>
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Kyrgyzstan</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="4">
         <v>2020</v>
@@ -5445,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H53" s="5">
@@ -5456,11 +5512,12 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>27</v>
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Latvia</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4">
         <v>2020</v>
@@ -5475,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H54" s="5">
@@ -5486,11 +5543,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>56</v>
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Lithuania</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4">
         <v>2020</v>
@@ -5505,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H55" s="5">
@@ -5516,11 +5574,12 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>25</v>
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Macedonia</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="4">
         <v>2020</v>
@@ -5535,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H56" s="5">
@@ -5546,11 +5605,12 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>85</v>
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Malaysia</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4">
         <v>2020</v>
@@ -5565,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H57" s="5">
@@ -5576,11 +5636,12 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>92</v>
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Mexico</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C58" s="4">
         <v>2020</v>
@@ -5595,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H58" s="5">
@@ -5606,11 +5667,12 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>31</v>
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Moldova</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" s="4">
         <v>2020</v>
@@ -5625,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H59" s="5">
@@ -5636,11 +5698,12 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>11</v>
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Mongolia</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="4">
         <v>2020</v>
@@ -5655,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H60" s="5">
@@ -5666,11 +5729,12 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>61</v>
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Morocco</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="4">
         <v>2020</v>
@@ -5685,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H61" s="5">
@@ -5696,11 +5760,12 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>28</v>
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Namibia</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C62" s="4">
         <v>2020</v>
@@ -5715,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H62" s="5">
@@ -5726,11 +5791,12 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>36</v>
+      <c r="A63" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Netherlands</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" s="4">
         <v>2020</v>
@@ -5745,7 +5811,7 @@
         <v>14</v>
       </c>
       <c r="G63" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="H63" s="5">
@@ -5756,11 +5822,12 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>24</v>
+      <c r="A64" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020New Zealand</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="4">
         <v>2020</v>
@@ -5775,7 +5842,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="H64" s="5">
@@ -5786,11 +5853,12 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>88</v>
+      <c r="A65" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Nigeria</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4">
         <v>2020</v>
@@ -5805,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H65" s="5">
@@ -5816,11 +5884,12 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>46</v>
+      <c r="A66" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2020Norway</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4">
         <v>2020</v>
@@ -5835,7 +5904,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" ref="G66:G97" si="2">SUM(D66:F66)</f>
+        <f t="shared" ref="G66:G94" si="3">SUM(D66:F66)</f>
         <v>8</v>
       </c>
       <c r="H66" s="5">
@@ -5846,11 +5915,12 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>69</v>
+      <c r="A67" s="4" t="str">
+        <f t="shared" ref="A67:A94" si="4">C67&amp;B67</f>
+        <v>2020Philippines</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="4">
         <v>2020</v>
@@ -5865,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H67" s="5">
@@ -5876,11 +5946,12 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>43</v>
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Poland</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C68" s="4">
         <v>2020</v>
@@ -5895,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="H68" s="5">
@@ -5906,11 +5977,12 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>60</v>
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Portugal</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" s="4">
         <v>2020</v>
@@ -5925,7 +5997,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H69" s="5">
@@ -5936,11 +6008,12 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>54</v>
+      <c r="A70" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Puerto Rico</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="4">
         <v>2020</v>
@@ -5955,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H70" s="5">
@@ -5966,11 +6039,12 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>48</v>
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Qatar</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C71" s="4">
         <v>2020</v>
@@ -5985,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H71" s="5">
@@ -5996,11 +6070,12 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="A72" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Romania</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C72" s="4">
         <v>2020</v>
@@ -6015,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H72" s="5">
@@ -6026,11 +6101,12 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>37</v>
+      <c r="A73" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Russian Federation</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C73" s="4">
         <v>2020</v>
@@ -6045,7 +6121,7 @@
         <v>23</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
       <c r="H73" s="5">
@@ -6056,11 +6132,12 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>1</v>
+      <c r="A74" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020San Marino</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4">
         <v>2020</v>
@@ -6075,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="G74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H74" s="5">
@@ -6086,11 +6163,12 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>93</v>
+      <c r="A75" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Saudi Arabia</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" s="4">
         <v>2020</v>
@@ -6105,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H75" s="5">
@@ -6116,11 +6194,12 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>10</v>
+      <c r="A76" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Serbia</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="4">
         <v>2020</v>
@@ -6135,7 +6214,7 @@
         <v>5</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H76" s="5">
@@ -6146,11 +6225,12 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>35</v>
+      <c r="A77" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Slovakia</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="4">
         <v>2020</v>
@@ -6165,7 +6245,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H77" s="5">
@@ -6176,11 +6256,12 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>18</v>
+      <c r="A78" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Slovenia</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="4">
         <v>2020</v>
@@ -6195,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H78" s="5">
@@ -6206,11 +6287,12 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>78</v>
+      <c r="A79" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020South Africa</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="4">
         <v>2020</v>
@@ -6225,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H79" s="5">
@@ -6236,11 +6318,12 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>72</v>
+      <c r="A80" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020South Korea</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="4">
         <v>2020</v>
@@ -6255,7 +6338,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H80" s="5">
@@ -6266,11 +6349,12 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>75</v>
+      <c r="A81" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Spain</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" s="4">
         <v>2020</v>
@@ -6285,7 +6369,7 @@
         <v>6</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="H81" s="5">
@@ -6296,11 +6380,12 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>53</v>
+      <c r="A82" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Sweden</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82" s="4">
         <v>2020</v>
@@ -6315,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="H82" s="5">
@@ -6326,11 +6411,12 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>59</v>
+      <c r="A83" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Switzerland</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C83" s="4">
         <v>2020</v>
@@ -6345,7 +6431,7 @@
         <v>6</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H83" s="5">
@@ -6356,11 +6442,12 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>81</v>
+      <c r="A84" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Syria</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4">
         <v>2020</v>
@@ -6375,7 +6462,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H84" s="5">
@@ -6386,11 +6473,12 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>51</v>
+      <c r="A85" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Taiwan</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" s="4">
         <v>2020</v>
@@ -6405,7 +6493,7 @@
         <v>6</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H85" s="5">
@@ -6416,11 +6504,12 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>84</v>
+      <c r="A86" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Thailand</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="4">
         <v>2020</v>
@@ -6435,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H86" s="5">
@@ -6446,11 +6535,12 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>29</v>
+      <c r="A87" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Tunisia</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="4">
         <v>2020</v>
@@ -6465,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H87" s="5">
@@ -6476,11 +6566,12 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>76</v>
+      <c r="A88" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Turkey</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="4">
         <v>2020</v>
@@ -6495,7 +6586,7 @@
         <v>9</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="H88" s="5">
@@ -6506,11 +6597,12 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>49</v>
+      <c r="A89" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Turkmenistan</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="4">
         <v>2020</v>
@@ -6525,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H89" s="5">
@@ -6536,11 +6628,12 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>13</v>
+      <c r="A90" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Uganda</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C90" s="4">
         <v>2020</v>
@@ -6555,7 +6648,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H90" s="5">
@@ -6566,11 +6659,12 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>21</v>
+      <c r="A91" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Ukraine</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C91" s="4">
         <v>2020</v>
@@ -6585,7 +6679,7 @@
         <v>12</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="H91" s="5">
@@ -6596,11 +6690,12 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>83</v>
+      <c r="A92" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020United States</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C92" s="4">
         <v>2020</v>
@@ -6615,7 +6710,7 @@
         <v>33</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="H92" s="5">
@@ -6626,11 +6721,12 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>19</v>
+      <c r="A93" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Uzbekistan</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93" s="4">
         <v>2020</v>
@@ -6645,7 +6741,7 @@
         <v>2</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H93" s="5">
@@ -6656,11 +6752,12 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>64</v>
+      <c r="A94" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>2020Venezuela</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C94" s="4">
         <v>2020</v>
@@ -6675,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H94" s="5">
@@ -6709,16 +6806,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6732,7 +6829,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4">
         <v>637.42999999999995</v>
@@ -6744,7 +6841,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4">
         <v>11.54</v>
@@ -6756,7 +6853,7 @@
         <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>1323.42</v>
@@ -6768,7 +6865,7 @@
         <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>416.84</v>
@@ -6780,7 +6877,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4">
         <v>40.75</v>
@@ -6792,7 +6889,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4">
         <v>12.16</v>
@@ -6804,7 +6901,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>35.43</v>
@@ -6816,7 +6913,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4">
         <v>54.46</v>
@@ -6828,7 +6925,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4">
         <v>494.76</v>
@@ -6840,7 +6937,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4">
         <v>7.48</v>
@@ -6852,7 +6949,7 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4">
         <v>17.41</v>
@@ -6864,7 +6961,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4">
         <v>2053.59</v>
@@ -6876,7 +6973,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4">
         <v>58.22</v>
@@ -6888,7 +6985,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4">
         <v>12.32</v>
@@ -6900,7 +6997,7 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4">
         <v>1647.12</v>
@@ -6912,7 +7009,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4">
         <v>12237.7</v>
@@ -6924,7 +7021,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="4">
         <v>314.45999999999998</v>
@@ -6936,7 +7033,7 @@
         <v>73</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="4">
         <v>37.35</v>
@@ -6948,7 +7045,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4">
         <v>55.21</v>
@@ -6960,7 +7057,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4">
         <v>96.85</v>
@@ -6972,7 +7069,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4">
         <v>215.22</v>
@@ -6984,7 +7081,7 @@
         <v>41</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" s="4">
         <v>329.87</v>
@@ -6996,7 +7093,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4">
         <v>75.930000000000007</v>
@@ -7008,7 +7105,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="4">
         <v>104.3</v>
@@ -7020,7 +7117,7 @@
         <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="4">
         <v>235.37</v>
@@ -7032,7 +7129,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="4">
         <v>26.61</v>
@@ -7044,7 +7141,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="4">
         <v>80.56</v>
@@ -7056,7 +7153,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="4">
         <v>5.0599999999999996</v>
@@ -7068,7 +7165,7 @@
         <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C31" s="4">
         <v>252.3</v>
@@ -7080,7 +7177,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C32" s="4">
         <v>2582.5</v>
@@ -7092,7 +7189,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4">
         <v>15.08</v>
@@ -7104,7 +7201,7 @@
         <v>79</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4">
         <v>3693.2</v>
@@ -7116,7 +7213,7 @@
         <v>82</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4">
         <v>59</v>
@@ -7128,7 +7225,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="4">
         <v>2431.59</v>
@@ -7140,7 +7237,7 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="4">
         <v>203.09</v>
@@ -7152,7 +7249,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="4">
         <v>1.1299999999999999</v>
@@ -7164,7 +7261,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4">
         <v>341.45</v>
@@ -7176,7 +7273,7 @@
         <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <v>139.76</v>
@@ -7188,7 +7285,7 @@
         <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
         <v>2650.73</v>
@@ -7200,7 +7297,7 @@
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4">
         <v>1015.42</v>
@@ -7212,7 +7309,7 @@
         <v>58</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="4">
         <v>454.01</v>
@@ -7224,7 +7321,7 @@
         <v>67</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4">
         <v>331.43</v>
@@ -7236,7 +7333,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="4">
         <v>353.27</v>
@@ -7248,7 +7345,7 @@
         <v>57</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="4">
         <v>1943.84</v>
@@ -7260,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="4">
         <v>14.78</v>
@@ -7272,7 +7369,7 @@
         <v>65</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4">
         <v>4872.42</v>
@@ -7284,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C49" s="4">
         <v>40.07</v>
@@ -7296,7 +7393,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4">
         <v>162.88999999999999</v>
@@ -7308,7 +7405,7 @@
         <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="4">
         <v>79.260000000000005</v>
@@ -7320,7 +7417,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="4">
         <v>18.84</v>
@@ -7332,7 +7429,7 @@
         <v>87</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C53" s="4">
         <v>120.13</v>
@@ -7344,7 +7441,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="4">
         <v>7.56</v>
@@ -7356,7 +7453,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4">
         <v>30.46</v>
@@ -7368,7 +7465,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C56" s="4">
         <v>47.54</v>
@@ -7380,7 +7477,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="4">
         <v>10.17</v>
@@ -7392,7 +7489,7 @@
         <v>85</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4">
         <v>314.70999999999998</v>
@@ -7404,7 +7501,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="4">
         <v>1150.8900000000001</v>
@@ -7416,7 +7513,7 @@
         <v>31</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" s="4">
         <v>8.1300000000000008</v>
@@ -7428,7 +7525,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="4">
         <v>11.43</v>
@@ -7440,7 +7537,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4">
         <v>109.71</v>
@@ -7452,7 +7549,7 @@
         <v>28</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4">
         <v>13.25</v>
@@ -7464,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="4">
         <v>830.57</v>
@@ -7476,7 +7573,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C65" s="4">
         <v>204.14</v>
@@ -7488,7 +7585,7 @@
         <v>88</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" s="4">
         <v>375.75</v>
@@ -7500,7 +7597,7 @@
         <v>46</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4">
         <v>399.49</v>
@@ -7512,7 +7609,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C68" s="4">
         <v>313.60000000000002</v>
@@ -7524,7 +7621,7 @@
         <v>43</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C69" s="4">
         <v>526.47</v>
@@ -7536,7 +7633,7 @@
         <v>60</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C70" s="4">
         <v>219.31</v>
@@ -7548,7 +7645,7 @@
         <v>54</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C71" s="4">
         <v>92.61</v>
@@ -7560,7 +7657,7 @@
         <v>48</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="4">
         <v>166.93</v>
@@ -7572,7 +7669,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="4">
         <v>211.88</v>
@@ -7584,7 +7681,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" s="4">
         <v>1857.77</v>
@@ -7596,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="4">
         <v>1.63</v>
@@ -7608,7 +7705,7 @@
         <v>93</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C76" s="4">
         <v>686.74</v>
@@ -7620,7 +7717,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="4">
         <v>41.43</v>
@@ -7632,7 +7729,7 @@
         <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C78" s="4">
         <v>95.62</v>
@@ -7644,7 +7741,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="4">
         <v>48.77</v>
@@ -7656,7 +7753,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="4">
         <v>348.87</v>
@@ -7668,7 +7765,7 @@
         <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" s="4">
         <v>1530.75</v>
@@ -7680,7 +7777,7 @@
         <v>75</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="4">
         <v>1314.31</v>
@@ -7692,7 +7789,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C83" s="4">
         <v>535.61</v>
@@ -7704,7 +7801,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C84" s="4">
         <v>678.97</v>
@@ -7716,7 +7813,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85" s="4">
         <v>52.58</v>
@@ -7728,7 +7825,7 @@
         <v>51</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86" s="4">
         <v>466</v>
@@ -7740,7 +7837,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C87" s="4">
         <v>455.3</v>
@@ -7752,7 +7849,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="4">
         <v>39.950000000000003</v>
@@ -7764,7 +7861,7 @@
         <v>76</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="4">
         <v>851.55</v>
@@ -7776,7 +7873,7 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="4">
         <v>37.93</v>
@@ -7788,7 +7885,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" s="4">
         <v>26</v>
@@ -7800,7 +7897,7 @@
         <v>21</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C92" s="4">
         <v>112.15</v>
@@ -7812,7 +7909,7 @@
         <v>83</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C93" s="4">
         <v>19485.39</v>
@@ -7824,7 +7921,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C94" s="4">
         <v>49.68</v>
@@ -7836,7 +7933,7 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4">
         <v>316.48</v>
